--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_25_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332076.326268328</v>
+        <v>1326031.051429605</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19884414.94219266</v>
+        <v>19884414.94219264</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10719269.75998488</v>
+        <v>10719269.75998487</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="F11" t="n">
-        <v>51.50881322116569</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>335.8151578977946</v>
+        <v>180.4660982199036</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>115.319892856474</v>
+        <v>115.3198928564739</v>
       </c>
       <c r="T11" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>41.81571825297578</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -1469,7 +1469,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I12" t="n">
-        <v>8.854161465986792</v>
+        <v>8.854161465986778</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>131.5071233212345</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>52.32283839490673</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5965581459434</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4439188072656</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.82444768843241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>163.4608636970906</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.10705470118178</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="H14" t="n">
-        <v>298.5829100630798</v>
+        <v>84.03487081680497</v>
       </c>
       <c r="I14" t="n">
-        <v>53.16006395033762</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>36.56946254697907</v>
       </c>
       <c r="E15" t="n">
-        <v>41.81571825297578</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I15" t="n">
-        <v>8.854161465986792</v>
+        <v>8.854161465986778</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4439188072656</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>282.5312244651214</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.2608483283276</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.84834320574315</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>242.6259271260399</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>53.16006395033762</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>115.3198928564739</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>304.5301358581255</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U18" t="n">
-        <v>207.8860038244843</v>
+        <v>169.3607573742911</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -1988,10 +1988,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.8175904977186</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>100.7172842602706</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>78.82444768843241</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T19" t="n">
-        <v>229.1961435740429</v>
+        <v>214.2620303006477</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>180.4660982199036</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>115.3198928564739</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.76466843941795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.70033176380488</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>76.18305849007386</v>
+        <v>43.23681888493177</v>
       </c>
       <c r="I21" t="n">
-        <v>8.854161465986792</v>
+        <v>8.854161465986778</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.2555273384648</v>
+        <v>145.2435281478134</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4439188072657</v>
+        <v>102.4439188072656</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U22" t="n">
-        <v>36.77818645026144</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>295.7859910763774</v>
+        <v>304.5301358581255</v>
       </c>
       <c r="C23" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>99.01175474293342</v>
       </c>
       <c r="G24" t="n">
         <v>117.6962971812177</v>
@@ -2417,7 +2417,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I24" t="n">
-        <v>8.854161465986792</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T24" t="n">
         <v>170.5265796494932</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
@@ -2465,7 +2465,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.19697197308166</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2478,13 +2478,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>248.2149496658594</v>
+        <v>114.5951462276206</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.8151578977946</v>
+        <v>84.03487081680457</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>335.8151578977946</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>180.4660982199034</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>102.8989631803711</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.854161465986792</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>170.5265796494932</v>
@@ -2693,16 +2693,16 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>93.57950877053001</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>26.80650638355577</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>229.1961435740429</v>
@@ -2772,16 +2772,16 @@
         <v>282.5312244651214</v>
       </c>
       <c r="V28" t="n">
-        <v>119.6041352705511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="F29" t="n">
         <v>335.8151578977946</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>295.7859910763775</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>51.50881322116569</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>46.70732918222871</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
@@ -2939,7 +2939,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>140.1265112660971</v>
       </c>
     </row>
     <row r="31">
@@ -2961,13 +2961,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>111.5594274688712</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>205.0085536205243</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304.5301358581253</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>295.7859910763774</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>106.4380985501335</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>170.5265796494932</v>
+        <v>55.6576229080538</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -3173,10 +3173,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>145.9084291824856</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -3201,13 +3201,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>65.0396327461238</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.7859910763776</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>295.7859910763775</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>335.8151578977947</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>335.8151578977947</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>335.8151578977947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T36" t="n">
-        <v>170.5265796494932</v>
+        <v>20.02073951025941</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>70.32505427112953</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3599325119762443</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T37" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.0299698115172</v>
       </c>
     </row>
     <row r="38">
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>335.8151578977946</v>
+        <v>304.5301358581255</v>
       </c>
       <c r="W38" t="n">
-        <v>295.7859910763774</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>26.55525288912568</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.854161465986792</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>170.5265796494932</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>210.7811203496698</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>134.0119523491517</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V40" t="n">
-        <v>218.2549018961984</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -3729,7 +3729,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>335.8151578977946</v>
       </c>
-      <c r="C41" t="n">
-        <v>127.3060342695659</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,61 +3754,61 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>295.7859910763774</v>
+      </c>
+      <c r="Y41" t="n">
         <v>335.8151578977946</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53.16006395033762</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>115.319892856474</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>335.8151578977946</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>132.1188658299034</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I42" t="n">
-        <v>8.854161465986792</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T42" t="n">
-        <v>78.63589005177565</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -3906,7 +3906,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -3915,10 +3915,10 @@
         <v>165.5965581459434</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>74.24377379397176</v>
       </c>
       <c r="X43" t="n">
-        <v>167.4846786609626</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>335.8151578977946</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>295.7859910763774</v>
+      </c>
+      <c r="X44" t="n">
         <v>335.8151578977946</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>295.7859910763775</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>335.8151578977946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>67.56036378864221</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>43.92672834382505</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>25.86019330351337</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.40356872431706</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418.1015470954198</v>
+        <v>887.5686611323215</v>
       </c>
       <c r="C11" t="n">
-        <v>418.1015470954198</v>
+        <v>548.3614309325289</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1015470954198</v>
+        <v>548.3614309325289</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1015470954198</v>
+        <v>209.1542007327363</v>
       </c>
       <c r="F11" t="n">
-        <v>366.0724428316161</v>
+        <v>209.1542007327363</v>
       </c>
       <c r="G11" t="n">
         <v>26.86521263182357</v>
@@ -5041,16 +5041,16 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J11" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997852</v>
       </c>
       <c r="K11" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754417</v>
       </c>
       <c r="L11" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627739</v>
       </c>
       <c r="M11" t="n">
-        <v>642.5250891064582</v>
+        <v>642.5250891064586</v>
       </c>
       <c r="N11" t="n">
         <v>878.8417802023819</v>
@@ -5062,31 +5062,31 @@
         <v>1253.948421109685</v>
       </c>
       <c r="Q11" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R11" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S11" t="n">
         <v>1226.775891332114</v>
       </c>
       <c r="T11" t="n">
-        <v>1012.885870867899</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="U11" t="n">
-        <v>757.3087772952124</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="V11" t="n">
-        <v>757.3087772952124</v>
+        <v>887.5686611323215</v>
       </c>
       <c r="W11" t="n">
-        <v>757.3087772952124</v>
+        <v>887.5686611323215</v>
       </c>
       <c r="X11" t="n">
-        <v>418.1015470954198</v>
+        <v>887.5686611323215</v>
       </c>
       <c r="Y11" t="n">
-        <v>418.1015470954198</v>
+        <v>887.5686611323215</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>679.0596462542446</v>
+        <v>773.2680378979268</v>
       </c>
       <c r="C12" t="n">
-        <v>528.4054158143368</v>
+        <v>622.613807458019</v>
       </c>
       <c r="D12" t="n">
-        <v>398.3164484358172</v>
+        <v>492.5248400794994</v>
       </c>
       <c r="E12" t="n">
         <v>356.0783491903871</v>
@@ -5114,58 +5114,58 @@
         <v>112.7613944056222</v>
       </c>
       <c r="H12" t="n">
-        <v>35.80881007221427</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I12" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J12" t="n">
-        <v>131.8117021474591</v>
+        <v>54.01717302604609</v>
       </c>
       <c r="K12" t="n">
-        <v>229.019363233009</v>
+        <v>386.4741793448628</v>
       </c>
       <c r="L12" t="n">
-        <v>389.8367114838496</v>
+        <v>547.2915275957034</v>
       </c>
       <c r="M12" t="n">
-        <v>590.0849359402744</v>
+        <v>747.5397520521283</v>
       </c>
       <c r="N12" t="n">
-        <v>922.5419422590911</v>
+        <v>970.5820261604426</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.70323229817</v>
+        <v>1152.743316199522</v>
       </c>
       <c r="P12" t="n">
-        <v>1238.337234119414</v>
+        <v>1286.377318020766</v>
       </c>
       <c r="Q12" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R12" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S12" t="n">
-        <v>1230.148920794168</v>
+        <v>1230.148920794169</v>
       </c>
       <c r="T12" t="n">
-        <v>1230.148920794168</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U12" t="n">
-        <v>1020.163058345194</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="V12" t="n">
-        <v>1020.163058345194</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="W12" t="n">
-        <v>1020.163058345194</v>
+        <v>925.0643723388881</v>
       </c>
       <c r="X12" t="n">
-        <v>830.855980695206</v>
+        <v>925.0643723388881</v>
       </c>
       <c r="Y12" t="n">
-        <v>830.855980695206</v>
+        <v>925.0643723388881</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.8705621261635</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="C13" t="n">
-        <v>559.8705621261635</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0192102121163</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="E13" t="n">
-        <v>351.4603980713188</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="F13" t="n">
-        <v>194.1344632842917</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="G13" t="n">
-        <v>26.86521263182357</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="H13" t="n">
-        <v>26.86521263182357</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I13" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J13" t="n">
-        <v>26.86521263182357</v>
+        <v>65.33151044026185</v>
       </c>
       <c r="K13" t="n">
-        <v>55.98452989802864</v>
+        <v>259.3059004491483</v>
       </c>
       <c r="L13" t="n">
-        <v>363.6119281359395</v>
+        <v>566.9332986870593</v>
       </c>
       <c r="M13" t="n">
-        <v>696.0689344547562</v>
+        <v>657.7328766233027</v>
       </c>
       <c r="N13" t="n">
-        <v>1026.961358784552</v>
+        <v>723.2700190585117</v>
       </c>
       <c r="O13" t="n">
-        <v>1074.2920095209</v>
+        <v>1022.402219330329</v>
       </c>
       <c r="P13" t="n">
         <v>1259.015622802647</v>
       </c>
       <c r="Q13" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R13" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360439</v>
       </c>
       <c r="S13" t="n">
-        <v>1343.260631591178</v>
+        <v>1077.986328330093</v>
       </c>
       <c r="T13" t="n">
-        <v>1343.260631591178</v>
+        <v>912.8743447976785</v>
       </c>
       <c r="U13" t="n">
-        <v>1343.260631591178</v>
+        <v>912.8743447976785</v>
       </c>
       <c r="V13" t="n">
-        <v>1077.281286412003</v>
+        <v>912.8743447976785</v>
       </c>
       <c r="W13" t="n">
-        <v>793.9508843431804</v>
+        <v>629.5439427288561</v>
       </c>
       <c r="X13" t="n">
-        <v>559.8705621261635</v>
+        <v>629.5439427288561</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.8705621261635</v>
+        <v>629.5439427288561</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>721.3683761785024</v>
+        <v>790.1633809271714</v>
       </c>
       <c r="C14" t="n">
-        <v>721.3683761785024</v>
+        <v>790.1633809271714</v>
       </c>
       <c r="D14" t="n">
-        <v>382.1611459787099</v>
+        <v>790.1633809271714</v>
       </c>
       <c r="E14" t="n">
-        <v>382.1611459787099</v>
+        <v>790.1633809271714</v>
       </c>
       <c r="F14" t="n">
-        <v>382.1611459787099</v>
+        <v>450.9561507273788</v>
       </c>
       <c r="G14" t="n">
-        <v>382.1611459787099</v>
+        <v>111.7489205275862</v>
       </c>
       <c r="H14" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I14" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J14" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997852</v>
       </c>
       <c r="K14" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754417</v>
       </c>
       <c r="L14" t="n">
-        <v>412.9225820627736</v>
+        <v>412.9225820627739</v>
       </c>
       <c r="M14" t="n">
-        <v>642.5250891064584</v>
+        <v>642.5250891064586</v>
       </c>
       <c r="N14" t="n">
-        <v>878.8417802023821</v>
+        <v>878.8417802023819</v>
       </c>
       <c r="O14" t="n">
         <v>1093.321010641008</v>
@@ -5299,31 +5299,31 @@
         <v>1253.948421109685</v>
       </c>
       <c r="Q14" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R14" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S14" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="T14" t="n">
-        <v>1129.370611126963</v>
+        <v>1129.370611126964</v>
       </c>
       <c r="U14" t="n">
-        <v>1129.370611126963</v>
+        <v>1129.370611126964</v>
       </c>
       <c r="V14" t="n">
-        <v>1129.370611126963</v>
+        <v>1129.370611126964</v>
       </c>
       <c r="W14" t="n">
-        <v>790.1633809271709</v>
+        <v>1129.370611126964</v>
       </c>
       <c r="X14" t="n">
-        <v>790.1633809271709</v>
+        <v>790.1633809271714</v>
       </c>
       <c r="Y14" t="n">
-        <v>790.1633809271709</v>
+        <v>790.1633809271714</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>679.0596462542446</v>
+        <v>274.132051580045</v>
       </c>
       <c r="C15" t="n">
-        <v>528.4054158143368</v>
+        <v>274.132051580045</v>
       </c>
       <c r="D15" t="n">
-        <v>398.3164484358172</v>
+        <v>237.1932005224904</v>
       </c>
       <c r="E15" t="n">
-        <v>356.0783491903871</v>
+        <v>237.1932005224904</v>
       </c>
       <c r="F15" t="n">
-        <v>231.6465430735189</v>
+        <v>112.7613944056222</v>
       </c>
       <c r="G15" t="n">
         <v>112.7613944056222</v>
       </c>
       <c r="H15" t="n">
-        <v>35.80881007221427</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I15" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J15" t="n">
-        <v>54.01717302604606</v>
+        <v>54.01717302604609</v>
       </c>
       <c r="K15" t="n">
-        <v>151.2248341115959</v>
+        <v>151.224834111596</v>
       </c>
       <c r="L15" t="n">
-        <v>312.0421823624365</v>
+        <v>312.0421823624366</v>
       </c>
       <c r="M15" t="n">
-        <v>512.2904068188612</v>
+        <v>512.2904068188615</v>
       </c>
       <c r="N15" t="n">
-        <v>727.2042251146949</v>
+        <v>727.2042251146951</v>
       </c>
       <c r="O15" t="n">
-        <v>909.3655151537741</v>
+        <v>909.3655151537744</v>
       </c>
       <c r="P15" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q15" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R15" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S15" t="n">
-        <v>1230.148920794168</v>
+        <v>1230.148920794169</v>
       </c>
       <c r="T15" t="n">
-        <v>1230.148920794168</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U15" t="n">
-        <v>1020.163058345194</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="V15" t="n">
-        <v>1020.163058345194</v>
+        <v>835.3598488122122</v>
       </c>
       <c r="W15" t="n">
-        <v>1020.163058345194</v>
+        <v>605.2426029454991</v>
       </c>
       <c r="X15" t="n">
-        <v>830.855980695206</v>
+        <v>605.2426029454991</v>
       </c>
       <c r="Y15" t="n">
-        <v>830.855980695206</v>
+        <v>425.9283860210064</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>519.9726943157877</v>
+        <v>447.2717913190975</v>
       </c>
       <c r="C16" t="n">
-        <v>349.767576381777</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="D16" t="n">
-        <v>194.1344632842917</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="E16" t="n">
-        <v>194.1344632842917</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="F16" t="n">
-        <v>194.1344632842917</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="G16" t="n">
-        <v>26.86521263182357</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="H16" t="n">
-        <v>26.86521263182357</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I16" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J16" t="n">
-        <v>65.33151044026184</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="K16" t="n">
-        <v>259.3059004491483</v>
+        <v>87.46412802129635</v>
       </c>
       <c r="L16" t="n">
-        <v>566.9332986870592</v>
+        <v>144.1655971984306</v>
       </c>
       <c r="M16" t="n">
-        <v>628.834931760946</v>
+        <v>476.6226035172474</v>
       </c>
       <c r="N16" t="n">
-        <v>959.7273560907418</v>
+        <v>807.5150278470431</v>
       </c>
       <c r="O16" t="n">
-        <v>1022.402219330329</v>
+        <v>1106.64722811886</v>
       </c>
       <c r="P16" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="Q16" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R16" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S16" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="T16" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="U16" t="n">
         <v>1057.875556373884</v>
       </c>
       <c r="V16" t="n">
-        <v>791.8962111947084</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="W16" t="n">
-        <v>791.8962111947084</v>
+        <v>1057.875556373884</v>
       </c>
       <c r="X16" t="n">
-        <v>791.8962111947084</v>
+        <v>855.5918711937554</v>
       </c>
       <c r="Y16" t="n">
-        <v>705.180713007089</v>
+        <v>632.4798100103988</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1343.260631591178</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="C17" t="n">
-        <v>1098.183937524472</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="D17" t="n">
-        <v>758.976707324679</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="E17" t="n">
-        <v>758.976707324679</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="F17" t="n">
-        <v>419.7694771248864</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="G17" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="H17" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="I17" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="J17" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997846</v>
       </c>
       <c r="K17" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L17" t="n">
         <v>412.9225820627735</v>
       </c>
       <c r="M17" t="n">
-        <v>642.5250891064582</v>
+        <v>642.5250891064584</v>
       </c>
       <c r="N17" t="n">
-        <v>878.8417802023819</v>
+        <v>878.8417802023823</v>
       </c>
       <c r="O17" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641009</v>
       </c>
       <c r="P17" t="n">
         <v>1253.948421109685</v>
       </c>
       <c r="Q17" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R17" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S17" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="T17" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="U17" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="V17" t="n">
-        <v>1343.260631591178</v>
+        <v>705.2796730314089</v>
       </c>
       <c r="W17" t="n">
-        <v>1343.260631591178</v>
+        <v>366.0724428316162</v>
       </c>
       <c r="X17" t="n">
-        <v>1343.260631591178</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="Y17" t="n">
-        <v>1343.260631591178</v>
+        <v>26.86521263182358</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384.560994783659</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="C18" t="n">
-        <v>233.9067643437512</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="D18" t="n">
-        <v>103.8177969652315</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="E18" t="n">
-        <v>103.8177969652315</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="F18" t="n">
-        <v>103.8177969652315</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="G18" t="n">
-        <v>103.8177969652315</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="H18" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="I18" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="J18" t="n">
-        <v>54.01717302604606</v>
+        <v>54.01717302604609</v>
       </c>
       <c r="K18" t="n">
-        <v>151.2248341115959</v>
+        <v>151.224834111596</v>
       </c>
       <c r="L18" t="n">
-        <v>312.0421823624365</v>
+        <v>312.0421823624366</v>
       </c>
       <c r="M18" t="n">
-        <v>512.2904068188612</v>
+        <v>512.2904068188615</v>
       </c>
       <c r="N18" t="n">
-        <v>844.747413137678</v>
+        <v>727.2042251146951</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.70323229817</v>
+        <v>909.3655151537744</v>
       </c>
       <c r="P18" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q18" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R18" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S18" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="T18" t="n">
-        <v>1343.260631591178</v>
+        <v>1171.011561238156</v>
       </c>
       <c r="U18" t="n">
-        <v>1133.274769142204</v>
+        <v>999.940089142912</v>
       </c>
       <c r="V18" t="n">
-        <v>910.7347675132714</v>
+        <v>777.4000875139791</v>
       </c>
       <c r="W18" t="n">
-        <v>680.6175216465583</v>
+        <v>547.282841647266</v>
       </c>
       <c r="X18" t="n">
-        <v>680.6175216465583</v>
+        <v>357.9757639972777</v>
       </c>
       <c r="Y18" t="n">
-        <v>536.3573292246203</v>
+        <v>178.6615470727849</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>611.6897080595888</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="C19" t="n">
-        <v>441.4845901255781</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="D19" t="n">
-        <v>339.7499595596481</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="E19" t="n">
-        <v>184.1911474188506</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="F19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="G19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="H19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="I19" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="J19" t="n">
-        <v>65.33151044026184</v>
+        <v>65.33151044026185</v>
       </c>
       <c r="K19" t="n">
         <v>259.3059004491483</v>
       </c>
       <c r="L19" t="n">
-        <v>330.475961654829</v>
+        <v>316.0073696262826</v>
       </c>
       <c r="M19" t="n">
-        <v>392.3775947287158</v>
+        <v>648.4643759450994</v>
       </c>
       <c r="N19" t="n">
-        <v>723.2700190585116</v>
+        <v>979.3568002748951</v>
       </c>
       <c r="O19" t="n">
-        <v>1022.402219330329</v>
+        <v>1278.489000546712</v>
       </c>
       <c r="P19" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="Q19" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R19" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360439</v>
       </c>
       <c r="S19" t="n">
-        <v>1343.260631591178</v>
+        <v>1077.986328330094</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.749375455782</v>
+        <v>861.560035097116</v>
       </c>
       <c r="U19" t="n">
-        <v>1111.749375455782</v>
+        <v>576.1749598798217</v>
       </c>
       <c r="V19" t="n">
-        <v>845.7700302766058</v>
+        <v>310.1956147006459</v>
       </c>
       <c r="W19" t="n">
-        <v>845.7700302766058</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="X19" t="n">
-        <v>611.6897080595888</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="Y19" t="n">
-        <v>611.6897080595888</v>
+        <v>26.86521263182358</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>366.0724428316161</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="C20" t="n">
-        <v>366.0724428316161</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="D20" t="n">
-        <v>26.86521263182357</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="E20" t="n">
-        <v>26.86521263182357</v>
+        <v>887.5686611323215</v>
       </c>
       <c r="F20" t="n">
-        <v>26.86521263182357</v>
+        <v>548.3614309325289</v>
       </c>
       <c r="G20" t="n">
-        <v>26.86521263182357</v>
+        <v>209.1542007327363</v>
       </c>
       <c r="H20" t="n">
         <v>26.86521263182357</v>
@@ -5752,16 +5752,16 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J20" t="n">
-        <v>92.99015204997852</v>
+        <v>92.99015204997846</v>
       </c>
       <c r="K20" t="n">
-        <v>225.0743319754417</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L20" t="n">
         <v>412.9225820627738</v>
       </c>
       <c r="M20" t="n">
-        <v>642.5250891064584</v>
+        <v>642.5250891064586</v>
       </c>
       <c r="N20" t="n">
         <v>878.8417802023819</v>
@@ -5773,31 +5773,31 @@
         <v>1253.948421109685</v>
       </c>
       <c r="Q20" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R20" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S20" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="T20" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="U20" t="n">
-        <v>1087.683538018492</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="V20" t="n">
-        <v>748.4763078186995</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="W20" t="n">
-        <v>409.269077618907</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="X20" t="n">
-        <v>409.269077618907</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.0724428316161</v>
+        <v>1226.775891332114</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>367.2821679010101</v>
+        <v>496.672053208978</v>
       </c>
       <c r="C21" t="n">
-        <v>367.2821679010101</v>
+        <v>346.0178227690702</v>
       </c>
       <c r="D21" t="n">
-        <v>237.1932005224904</v>
+        <v>215.9288553905506</v>
       </c>
       <c r="E21" t="n">
-        <v>237.1932005224904</v>
+        <v>79.48236450143827</v>
       </c>
       <c r="F21" t="n">
-        <v>112.7613944056222</v>
+        <v>79.48236450143827</v>
       </c>
       <c r="G21" t="n">
-        <v>112.7613944056222</v>
+        <v>79.48236450143827</v>
       </c>
       <c r="H21" t="n">
-        <v>35.80881007221427</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I21" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J21" t="n">
-        <v>54.01717302604606</v>
+        <v>248.7521680057735</v>
       </c>
       <c r="K21" t="n">
-        <v>151.2248341115959</v>
+        <v>345.9598290913233</v>
       </c>
       <c r="L21" t="n">
-        <v>375.1711176444408</v>
+        <v>506.777177342164</v>
       </c>
       <c r="M21" t="n">
-        <v>707.6281239632575</v>
+        <v>707.0254017985889</v>
       </c>
       <c r="N21" t="n">
-        <v>922.5419422590911</v>
+        <v>921.9392200944225</v>
       </c>
       <c r="O21" t="n">
-        <v>1104.70323229817</v>
+        <v>1104.100510133502</v>
       </c>
       <c r="P21" t="n">
-        <v>1238.337234119414</v>
+        <v>1237.734511954746</v>
       </c>
       <c r="Q21" t="n">
         <v>1295.220547689827</v>
       </c>
       <c r="R21" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S21" t="n">
-        <v>1230.148920794168</v>
+        <v>1230.148920794169</v>
       </c>
       <c r="T21" t="n">
-        <v>1230.148920794168</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U21" t="n">
-        <v>1020.163058345194</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="V21" t="n">
-        <v>797.6230567162613</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="W21" t="n">
-        <v>567.5058108495482</v>
+        <v>827.7826045744321</v>
       </c>
       <c r="X21" t="n">
-        <v>567.5058108495482</v>
+        <v>827.7826045744321</v>
       </c>
       <c r="Y21" t="n">
-        <v>388.1915939250554</v>
+        <v>648.4683876499394</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>771.8669767585927</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="C22" t="n">
-        <v>601.6618588245819</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="D22" t="n">
-        <v>601.6618588245819</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="E22" t="n">
-        <v>601.6618588245819</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="F22" t="n">
-        <v>444.3359240375548</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="G22" t="n">
-        <v>277.0666733850867</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="H22" t="n">
         <v>130.3439184977485</v>
@@ -5916,46 +5916,46 @@
         <v>220.83960264071</v>
       </c>
       <c r="L22" t="n">
-        <v>528.4670008786209</v>
+        <v>277.5410718178443</v>
       </c>
       <c r="M22" t="n">
-        <v>860.9240071974375</v>
+        <v>609.9980781366611</v>
       </c>
       <c r="N22" t="n">
-        <v>1191.816431527233</v>
+        <v>723.2700190585117</v>
       </c>
       <c r="O22" t="n">
-        <v>1239.147082263581</v>
+        <v>1022.402219330329</v>
       </c>
       <c r="P22" t="n">
-        <v>1267.256349353695</v>
+        <v>1259.015622802647</v>
       </c>
       <c r="Q22" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R22" t="n">
-        <v>1263.639977360439</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S22" t="n">
-        <v>1263.639977360439</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="T22" t="n">
-        <v>1032.128721225042</v>
+        <v>1111.749375455782</v>
       </c>
       <c r="U22" t="n">
-        <v>994.9790379419494</v>
+        <v>826.3643002384874</v>
       </c>
       <c r="V22" t="n">
-        <v>994.9790379419494</v>
+        <v>560.3849550593117</v>
       </c>
       <c r="W22" t="n">
-        <v>994.9790379419494</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="X22" t="n">
-        <v>994.9790379419494</v>
+        <v>277.0545529904893</v>
       </c>
       <c r="Y22" t="n">
-        <v>771.8669767585927</v>
+        <v>277.0545529904893</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>705.2796730314085</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="C23" t="n">
-        <v>366.0724428316161</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="D23" t="n">
-        <v>366.0724428316161</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="E23" t="n">
-        <v>26.86521263182357</v>
+        <v>366.0724428316162</v>
       </c>
       <c r="F23" t="n">
         <v>26.86521263182357</v>
@@ -5989,52 +5989,52 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J23" t="n">
-        <v>92.99015204997842</v>
+        <v>92.99015204997818</v>
       </c>
       <c r="K23" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754413</v>
       </c>
       <c r="L23" t="n">
-        <v>412.9225820627729</v>
+        <v>412.9225820627734</v>
       </c>
       <c r="M23" t="n">
-        <v>642.5250891064577</v>
+        <v>642.5250891064584</v>
       </c>
       <c r="N23" t="n">
-        <v>878.8417802023814</v>
+        <v>878.8417802023821</v>
       </c>
       <c r="O23" t="n">
         <v>1093.321010641008</v>
       </c>
       <c r="P23" t="n">
-        <v>1253.948421109684</v>
+        <v>1253.948421109685</v>
       </c>
       <c r="Q23" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R23" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S23" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="T23" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="U23" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="V23" t="n">
-        <v>1004.053401391386</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="W23" t="n">
-        <v>1004.053401391386</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="X23" t="n">
-        <v>1004.053401391386</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="Y23" t="n">
-        <v>1004.053401391386</v>
+        <v>1012.885870867899</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>518.747264402539</v>
+        <v>459.161309999951</v>
       </c>
       <c r="C24" t="n">
-        <v>368.0930339626312</v>
+        <v>459.161309999951</v>
       </c>
       <c r="D24" t="n">
-        <v>368.0930339626312</v>
+        <v>459.161309999951</v>
       </c>
       <c r="E24" t="n">
-        <v>231.6465430735189</v>
+        <v>322.7148191108387</v>
       </c>
       <c r="F24" t="n">
-        <v>231.6465430735189</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="G24" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H24" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I24" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J24" t="n">
-        <v>54.01717302604605</v>
+        <v>248.7521680057735</v>
       </c>
       <c r="K24" t="n">
-        <v>151.2248341115959</v>
+        <v>345.9598290913233</v>
       </c>
       <c r="L24" t="n">
-        <v>312.0421823624365</v>
+        <v>506.7771773421639</v>
       </c>
       <c r="M24" t="n">
-        <v>644.4991886812531</v>
+        <v>707.0254017985886</v>
       </c>
       <c r="N24" t="n">
-        <v>922.5419422590911</v>
+        <v>922.5419422590916</v>
       </c>
       <c r="O24" t="n">
-        <v>1104.70323229817</v>
+        <v>1104.703232298171</v>
       </c>
       <c r="P24" t="n">
         <v>1238.337234119414</v>
@@ -6092,28 +6092,28 @@
         <v>1295.220547689827</v>
       </c>
       <c r="R24" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S24" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794169</v>
       </c>
       <c r="T24" t="n">
-        <v>1171.011561238155</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U24" t="n">
-        <v>1171.011561238155</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="V24" t="n">
-        <v>948.4715596092219</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="W24" t="n">
-        <v>718.3543137425088</v>
+        <v>827.7826045744321</v>
       </c>
       <c r="X24" t="n">
-        <v>529.0472360925205</v>
+        <v>638.4755269244438</v>
       </c>
       <c r="Y24" t="n">
-        <v>518.747264402539</v>
+        <v>459.161309999951</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>604.5977261061246</v>
+        <v>339.7499595596481</v>
       </c>
       <c r="C25" t="n">
-        <v>434.3926081721137</v>
+        <v>339.7499595596481</v>
       </c>
       <c r="D25" t="n">
-        <v>434.3926081721137</v>
+        <v>339.7499595596481</v>
       </c>
       <c r="E25" t="n">
-        <v>434.3926081721137</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="F25" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G25" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I25" t="n">
         <v>26.86521263182357</v>
@@ -6150,49 +6150,49 @@
         <v>26.86521263182357</v>
       </c>
       <c r="K25" t="n">
-        <v>55.98452989802863</v>
+        <v>55.98452989802864</v>
       </c>
       <c r="L25" t="n">
-        <v>363.6119281359395</v>
+        <v>144.1655971984306</v>
       </c>
       <c r="M25" t="n">
-        <v>425.5135612098264</v>
+        <v>476.6226035172474</v>
       </c>
       <c r="N25" t="n">
-        <v>723.2700190585114</v>
+        <v>807.5150278470431</v>
       </c>
       <c r="O25" t="n">
-        <v>1022.402219330328</v>
+        <v>1106.64722811886</v>
       </c>
       <c r="P25" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="Q25" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R25" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S25" t="n">
-        <v>1263.639977360438</v>
+        <v>1157.606982560833</v>
       </c>
       <c r="T25" t="n">
-        <v>1263.639977360438</v>
+        <v>926.0957264254363</v>
       </c>
       <c r="U25" t="n">
-        <v>1263.639977360438</v>
+        <v>640.7106512081419</v>
       </c>
       <c r="V25" t="n">
-        <v>1263.639977360438</v>
+        <v>640.7106512081419</v>
       </c>
       <c r="W25" t="n">
-        <v>1012.917805980783</v>
+        <v>524.9579782509494</v>
       </c>
       <c r="X25" t="n">
-        <v>1012.917805980783</v>
+        <v>524.9579782509494</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.8057447974259</v>
+        <v>524.9579782509494</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>1044.486903231201</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1044.486903231201</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1044.486903231201</v>
+      </c>
+      <c r="E26" t="n">
+        <v>705.2796730314087</v>
+      </c>
+      <c r="F26" t="n">
         <v>366.0724428316161</v>
-      </c>
-      <c r="C26" t="n">
-        <v>366.0724428316161</v>
-      </c>
-      <c r="D26" t="n">
-        <v>366.0724428316161</v>
-      </c>
-      <c r="E26" t="n">
-        <v>26.86521263182357</v>
-      </c>
-      <c r="F26" t="n">
-        <v>26.86521263182357</v>
       </c>
       <c r="G26" t="n">
         <v>26.86521263182357</v>
@@ -6238,13 +6238,13 @@
         <v>642.5250891064584</v>
       </c>
       <c r="N26" t="n">
-        <v>878.8417802023816</v>
+        <v>878.8417802023819</v>
       </c>
       <c r="O26" t="n">
         <v>1093.321010641008</v>
       </c>
       <c r="P26" t="n">
-        <v>1253.948421109684</v>
+        <v>1253.948421109685</v>
       </c>
       <c r="Q26" t="n">
         <v>1343.260631591178</v>
@@ -6253,25 +6253,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S26" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T26" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U26" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="V26" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="W26" t="n">
-        <v>1044.486903231201</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="X26" t="n">
-        <v>705.2796730314085</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="Y26" t="n">
-        <v>705.2796730314085</v>
+        <v>1129.370611126963</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>412.2858195673522</v>
+        <v>35.80881007221427</v>
       </c>
       <c r="C27" t="n">
-        <v>412.2858195673522</v>
+        <v>35.80881007221427</v>
       </c>
       <c r="D27" t="n">
-        <v>282.1968521888326</v>
+        <v>35.80881007221427</v>
       </c>
       <c r="E27" t="n">
-        <v>145.7503612997203</v>
+        <v>35.80881007221427</v>
       </c>
       <c r="F27" t="n">
-        <v>145.7503612997203</v>
+        <v>35.80881007221427</v>
       </c>
       <c r="G27" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221427</v>
       </c>
       <c r="H27" t="n">
-        <v>26.86521263182357</v>
+        <v>35.80881007221427</v>
       </c>
       <c r="I27" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J27" t="n">
-        <v>54.01717302604605</v>
+        <v>54.01717302604606</v>
       </c>
       <c r="K27" t="n">
-        <v>151.2248341115959</v>
+        <v>386.4741793448628</v>
       </c>
       <c r="L27" t="n">
-        <v>483.6818404304125</v>
+        <v>547.2915275957034</v>
       </c>
       <c r="M27" t="n">
-        <v>683.9300648868373</v>
+        <v>747.5397520521282</v>
       </c>
       <c r="N27" t="n">
-        <v>898.8438831826709</v>
+        <v>962.4535703479618</v>
       </c>
       <c r="O27" t="n">
-        <v>1081.00517322175</v>
+        <v>1152.743316199522</v>
       </c>
       <c r="P27" t="n">
-        <v>1238.337234119414</v>
+        <v>1286.377318020766</v>
       </c>
       <c r="Q27" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R27" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S27" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T27" t="n">
-        <v>1057.899850441145</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U27" t="n">
-        <v>847.9139879921706</v>
+        <v>961.025698789181</v>
       </c>
       <c r="V27" t="n">
-        <v>847.9139879921706</v>
+        <v>738.485697160248</v>
       </c>
       <c r="W27" t="n">
-        <v>753.3892316583019</v>
+        <v>508.3684512935349</v>
       </c>
       <c r="X27" t="n">
-        <v>564.0821540083136</v>
+        <v>319.0613736435466</v>
       </c>
       <c r="Y27" t="n">
-        <v>564.0821540083136</v>
+        <v>139.7471567190538</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>519.8983933590999</v>
+        <v>53.94249180713243</v>
       </c>
       <c r="C28" t="n">
-        <v>349.6932754250892</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="D28" t="n">
-        <v>349.6932754250892</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="E28" t="n">
-        <v>194.1344632842917</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="F28" t="n">
-        <v>194.1344632842917</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G28" t="n">
         <v>26.86521263182357</v>
@@ -6384,22 +6384,22 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J28" t="n">
-        <v>65.33151044026184</v>
+        <v>61.04627875934733</v>
       </c>
       <c r="K28" t="n">
-        <v>259.3059004491483</v>
+        <v>255.0206687682338</v>
       </c>
       <c r="L28" t="n">
-        <v>566.9332986870592</v>
+        <v>311.722137945368</v>
       </c>
       <c r="M28" t="n">
-        <v>899.3903050058758</v>
+        <v>644.1791442641847</v>
       </c>
       <c r="N28" t="n">
-        <v>964.9274474410847</v>
+        <v>975.0715685939805</v>
       </c>
       <c r="O28" t="n">
-        <v>1022.402219330328</v>
+        <v>1022.402219330329</v>
       </c>
       <c r="P28" t="n">
         <v>1259.015622802647</v>
@@ -6411,25 +6411,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S28" t="n">
-        <v>1157.606982560833</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T28" t="n">
-        <v>926.0957264254358</v>
+        <v>1111.749375455782</v>
       </c>
       <c r="U28" t="n">
-        <v>640.7106512081415</v>
+        <v>826.3643002384872</v>
       </c>
       <c r="V28" t="n">
-        <v>519.8983933590999</v>
+        <v>560.3849550593114</v>
       </c>
       <c r="W28" t="n">
-        <v>519.8983933590999</v>
+        <v>277.0545529904891</v>
       </c>
       <c r="X28" t="n">
-        <v>519.8983933590999</v>
+        <v>277.0545529904891</v>
       </c>
       <c r="Y28" t="n">
-        <v>519.8983933590999</v>
+        <v>53.94249180713243</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>418.1015470954198</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="C29" t="n">
-        <v>418.1015470954198</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="D29" t="n">
-        <v>418.1015470954198</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="E29" t="n">
-        <v>418.1015470954198</v>
+        <v>664.8461711915934</v>
       </c>
       <c r="F29" t="n">
-        <v>78.8943168956273</v>
+        <v>325.6389409918008</v>
       </c>
       <c r="G29" t="n">
-        <v>78.8943168956273</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H29" t="n">
-        <v>78.8943168956273</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I29" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J29" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997842</v>
       </c>
       <c r="K29" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L29" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627736</v>
       </c>
       <c r="M29" t="n">
-        <v>642.5250891064582</v>
+        <v>642.5250891064584</v>
       </c>
       <c r="N29" t="n">
-        <v>878.8417802023819</v>
+        <v>878.8417802023821</v>
       </c>
       <c r="O29" t="n">
         <v>1093.321010641008</v>
@@ -6484,31 +6484,31 @@
         <v>1253.948421109685</v>
       </c>
       <c r="Q29" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R29" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S29" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T29" t="n">
-        <v>1012.885870867899</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U29" t="n">
-        <v>757.3087772952124</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V29" t="n">
-        <v>757.3087772952124</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W29" t="n">
-        <v>757.3087772952124</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X29" t="n">
-        <v>757.3087772952124</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Y29" t="n">
-        <v>757.3087772952124</v>
+        <v>1343.260631591178</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210.4908239070255</v>
+        <v>177.5194430717314</v>
       </c>
       <c r="C30" t="n">
-        <v>210.4908239070255</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="D30" t="n">
-        <v>210.4908239070255</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="E30" t="n">
-        <v>74.04433301791317</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="F30" t="n">
         <v>26.86521263182357</v>
@@ -6554,13 +6554,13 @@
         <v>512.2904068188612</v>
       </c>
       <c r="N30" t="n">
-        <v>844.747413137678</v>
+        <v>727.2042251146949</v>
       </c>
       <c r="O30" t="n">
-        <v>1026.908703176757</v>
+        <v>909.3655151537741</v>
       </c>
       <c r="P30" t="n">
-        <v>1160.542704998001</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q30" t="n">
         <v>1295.220547689827</v>
@@ -6578,16 +6578,16 @@
         <v>961.025698789181</v>
       </c>
       <c r="V30" t="n">
-        <v>961.025698789181</v>
+        <v>738.485697160248</v>
       </c>
       <c r="W30" t="n">
-        <v>730.9084529224679</v>
+        <v>508.3684512935349</v>
       </c>
       <c r="X30" t="n">
-        <v>541.6013752724796</v>
+        <v>319.0613736435466</v>
       </c>
       <c r="Y30" t="n">
-        <v>362.2871583479868</v>
+        <v>177.5194430717314</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.5881905911442</v>
+        <v>934.9405517165205</v>
       </c>
       <c r="C31" t="n">
-        <v>495.3830726571334</v>
+        <v>764.7354337825097</v>
       </c>
       <c r="D31" t="n">
-        <v>339.7499595596481</v>
+        <v>609.1023206850246</v>
       </c>
       <c r="E31" t="n">
-        <v>184.1911474188506</v>
+        <v>453.5435085442271</v>
       </c>
       <c r="F31" t="n">
-        <v>26.86521263182357</v>
+        <v>340.8572181716298</v>
       </c>
       <c r="G31" t="n">
-        <v>26.86521263182357</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="H31" t="n">
         <v>26.86521263182357</v>
@@ -6621,25 +6621,25 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J31" t="n">
-        <v>26.86521263182357</v>
+        <v>65.33151044026184</v>
       </c>
       <c r="K31" t="n">
-        <v>220.83960264071</v>
+        <v>259.3059004491483</v>
       </c>
       <c r="L31" t="n">
-        <v>277.5410718178443</v>
+        <v>566.9332986870592</v>
       </c>
       <c r="M31" t="n">
-        <v>476.6226035172472</v>
+        <v>628.834931760946</v>
       </c>
       <c r="N31" t="n">
-        <v>807.5150278470429</v>
+        <v>723.2700190585116</v>
       </c>
       <c r="O31" t="n">
-        <v>1106.64722811886</v>
+        <v>1022.402219330329</v>
       </c>
       <c r="P31" t="n">
-        <v>1343.260631591178</v>
+        <v>1259.015622802647</v>
       </c>
       <c r="Q31" t="n">
         <v>1343.260631591178</v>
@@ -6654,19 +6654,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U31" t="n">
-        <v>1057.875556373884</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V31" t="n">
-        <v>1057.875556373884</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W31" t="n">
-        <v>1057.875556373884</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X31" t="n">
-        <v>850.7962092824455</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Y31" t="n">
-        <v>850.7962092824455</v>
+        <v>1120.148570407822</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26.86521263182357</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="C32" t="n">
-        <v>26.86521263182357</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="D32" t="n">
-        <v>26.86521263182357</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="E32" t="n">
-        <v>26.86521263182357</v>
+        <v>366.0724428316161</v>
       </c>
       <c r="F32" t="n">
         <v>26.86521263182357</v>
@@ -6700,19 +6700,19 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J32" t="n">
-        <v>92.99015204997842</v>
+        <v>92.99015204997852</v>
       </c>
       <c r="K32" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754417</v>
       </c>
       <c r="L32" t="n">
-        <v>412.9225820627736</v>
+        <v>412.9225820627738</v>
       </c>
       <c r="M32" t="n">
         <v>642.5250891064584</v>
       </c>
       <c r="N32" t="n">
-        <v>878.8417802023821</v>
+        <v>878.8417802023819</v>
       </c>
       <c r="O32" t="n">
         <v>1093.321010641008</v>
@@ -6721,31 +6721,31 @@
         <v>1253.948421109685</v>
       </c>
       <c r="Q32" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R32" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S32" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T32" t="n">
-        <v>1012.885870867899</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U32" t="n">
-        <v>1012.885870867899</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V32" t="n">
-        <v>673.6786406681064</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W32" t="n">
-        <v>334.4714104683138</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X32" t="n">
-        <v>334.4714104683138</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Y32" t="n">
-        <v>334.4714104683138</v>
+        <v>1044.486903231201</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>395.2567404965248</v>
+        <v>313.9659339608436</v>
       </c>
       <c r="C33" t="n">
-        <v>395.2567404965248</v>
+        <v>163.3117035209359</v>
       </c>
       <c r="D33" t="n">
-        <v>287.7435096378041</v>
+        <v>163.3117035209359</v>
       </c>
       <c r="E33" t="n">
-        <v>151.2970187486918</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="F33" t="n">
         <v>26.86521263182357</v>
@@ -6779,16 +6779,16 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J33" t="n">
-        <v>131.8117021474591</v>
+        <v>248.7521680057735</v>
       </c>
       <c r="K33" t="n">
-        <v>229.019363233009</v>
+        <v>345.9598290913233</v>
       </c>
       <c r="L33" t="n">
-        <v>389.8367114838496</v>
+        <v>507.3798995068328</v>
       </c>
       <c r="M33" t="n">
-        <v>590.0849359402744</v>
+        <v>707.6281239632575</v>
       </c>
       <c r="N33" t="n">
         <v>922.5419422590911</v>
@@ -6806,25 +6806,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S33" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T33" t="n">
-        <v>1057.899850441145</v>
+        <v>1287.040810471932</v>
       </c>
       <c r="U33" t="n">
-        <v>847.9139879921709</v>
+        <v>1287.040810471932</v>
       </c>
       <c r="V33" t="n">
-        <v>625.3739863632379</v>
+        <v>1064.500808842999</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567404965248</v>
+        <v>834.3835629762862</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567404965248</v>
+        <v>645.0764853262978</v>
       </c>
       <c r="Y33" t="n">
-        <v>395.2567404965248</v>
+        <v>465.762268401805</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>834.7634951905275</v>
+        <v>495.3830726571334</v>
       </c>
       <c r="C34" t="n">
-        <v>664.5583772565167</v>
+        <v>495.3830726571334</v>
       </c>
       <c r="D34" t="n">
-        <v>508.9252641590314</v>
+        <v>339.7499595596481</v>
       </c>
       <c r="E34" t="n">
-        <v>353.3664520182339</v>
+        <v>184.1911474188506</v>
       </c>
       <c r="F34" t="n">
-        <v>196.0405172312069</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I34" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J34" t="n">
-        <v>65.33151044026184</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="K34" t="n">
-        <v>259.3059004491483</v>
+        <v>55.98452989802864</v>
       </c>
       <c r="L34" t="n">
-        <v>566.9332986870592</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M34" t="n">
-        <v>899.3903050058759</v>
+        <v>685.1267398994521</v>
       </c>
       <c r="N34" t="n">
-        <v>964.9274474410848</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O34" t="n">
-        <v>1022.402219330329</v>
+        <v>1315.151364501065</v>
       </c>
       <c r="P34" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q34" t="n">
         <v>1343.260631591178</v>
@@ -6885,25 +6885,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S34" t="n">
-        <v>1343.260631591178</v>
+        <v>1157.606982560833</v>
       </c>
       <c r="T34" t="n">
-        <v>1343.260631591178</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="U34" t="n">
-        <v>1057.875556373884</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="V34" t="n">
-        <v>1057.875556373884</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="W34" t="n">
-        <v>1057.875556373884</v>
+        <v>642.7653243566137</v>
       </c>
       <c r="X34" t="n">
-        <v>1057.875556373884</v>
+        <v>642.7653243566137</v>
       </c>
       <c r="Y34" t="n">
-        <v>834.7634951905275</v>
+        <v>642.7653243566137</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.86521263182358</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="C35" t="n">
-        <v>26.86521263182358</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="D35" t="n">
-        <v>26.86521263182358</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="E35" t="n">
-        <v>26.86521263182358</v>
+        <v>664.8461711915934</v>
       </c>
       <c r="F35" t="n">
-        <v>26.86521263182358</v>
+        <v>325.6389409918008</v>
       </c>
       <c r="G35" t="n">
-        <v>26.86521263182358</v>
+        <v>325.6389409918008</v>
       </c>
       <c r="H35" t="n">
-        <v>26.86521263182358</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I35" t="n">
-        <v>26.86521263182358</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J35" t="n">
         <v>92.99015204997841</v>
       </c>
       <c r="K35" t="n">
-        <v>225.074331975442</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L35" t="n">
-        <v>412.9225820627743</v>
+        <v>412.9225820627738</v>
       </c>
       <c r="M35" t="n">
-        <v>642.5250891064591</v>
+        <v>642.5250891064586</v>
       </c>
       <c r="N35" t="n">
-        <v>878.8417802023828</v>
+        <v>878.8417802023823</v>
       </c>
       <c r="O35" t="n">
-        <v>1093.321010641009</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P35" t="n">
         <v>1253.948421109685</v>
       </c>
       <c r="Q35" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R35" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S35" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T35" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U35" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V35" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W35" t="n">
-        <v>1004.053401391386</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X35" t="n">
-        <v>664.8461711915936</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.638940991801</v>
+        <v>1343.260631591178</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>764.3244404575362</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="C36" t="n">
-        <v>613.6702100176284</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="D36" t="n">
-        <v>483.5812426391087</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="E36" t="n">
-        <v>347.1347517499964</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="F36" t="n">
-        <v>222.7029456331282</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G36" t="n">
-        <v>103.8177969652315</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H36" t="n">
-        <v>26.86521263182358</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I36" t="n">
-        <v>26.86521263182358</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J36" t="n">
-        <v>54.01717302604607</v>
+        <v>54.01717302604606</v>
       </c>
       <c r="K36" t="n">
-        <v>151.2248341115959</v>
+        <v>386.4741793448628</v>
       </c>
       <c r="L36" t="n">
-        <v>312.0421823624365</v>
+        <v>547.2915275957034</v>
       </c>
       <c r="M36" t="n">
-        <v>512.2904068188612</v>
+        <v>747.5397520521282</v>
       </c>
       <c r="N36" t="n">
-        <v>727.2042251146949</v>
+        <v>970.5820261604425</v>
       </c>
       <c r="O36" t="n">
-        <v>909.3655151537741</v>
+        <v>1152.743316199522</v>
       </c>
       <c r="P36" t="n">
-        <v>1042.999516975018</v>
+        <v>1286.377318020766</v>
       </c>
       <c r="Q36" t="n">
-        <v>1295.220547689828</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R36" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S36" t="n">
-        <v>1230.148920794169</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T36" t="n">
-        <v>1057.899850441145</v>
+        <v>1209.925951591886</v>
       </c>
       <c r="U36" t="n">
-        <v>1057.899850441145</v>
+        <v>999.940089142912</v>
       </c>
       <c r="V36" t="n">
-        <v>835.3598488122125</v>
+        <v>777.4000875139791</v>
       </c>
       <c r="W36" t="n">
-        <v>835.3598488122125</v>
+        <v>547.282841647266</v>
       </c>
       <c r="X36" t="n">
-        <v>764.3244404575362</v>
+        <v>357.9757639972777</v>
       </c>
       <c r="Y36" t="n">
-        <v>764.3244404575362</v>
+        <v>178.6615470727849</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197.0703305658344</v>
+        <v>521.6655160053296</v>
       </c>
       <c r="C37" t="n">
-        <v>26.86521263182358</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="D37" t="n">
-        <v>26.86521263182358</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="E37" t="n">
-        <v>26.86521263182358</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="F37" t="n">
-        <v>26.86521263182358</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="G37" t="n">
-        <v>26.86521263182358</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H37" t="n">
-        <v>26.86521263182358</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I37" t="n">
-        <v>26.86521263182358</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="J37" t="n">
         <v>65.33151044026184</v>
       </c>
       <c r="K37" t="n">
-        <v>259.3059004491483</v>
+        <v>94.4508277064669</v>
       </c>
       <c r="L37" t="n">
-        <v>316.0073696262826</v>
+        <v>352.6697335806354</v>
       </c>
       <c r="M37" t="n">
-        <v>648.4643759450994</v>
+        <v>685.1267398994521</v>
       </c>
       <c r="N37" t="n">
-        <v>979.3568002748951</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O37" t="n">
-        <v>1230.906355712534</v>
+        <v>1315.151364501065</v>
       </c>
       <c r="P37" t="n">
-        <v>1259.015622802648</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q37" t="n">
-        <v>1343.260631591179</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R37" t="n">
-        <v>1263.639977360439</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S37" t="n">
-        <v>1263.639977360439</v>
+        <v>1157.606982560833</v>
       </c>
       <c r="T37" t="n">
-        <v>1032.128721225042</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="U37" t="n">
-        <v>746.7436460077479</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="V37" t="n">
-        <v>480.7643008285721</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="W37" t="n">
-        <v>197.4338987597498</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="X37" t="n">
-        <v>197.4338987597498</v>
+        <v>926.0957264254361</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.4338987597498</v>
+        <v>706.8735346966308</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>705.2796730314087</v>
+        <v>366.0724428316162</v>
       </c>
       <c r="C38" t="n">
-        <v>705.2796730314087</v>
+        <v>366.0724428316162</v>
       </c>
       <c r="D38" t="n">
-        <v>705.2796730314087</v>
+        <v>366.0724428316162</v>
       </c>
       <c r="E38" t="n">
-        <v>366.0724428316161</v>
+        <v>366.0724428316162</v>
       </c>
       <c r="F38" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="G38" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="H38" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="I38" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="J38" t="n">
-        <v>92.99015204997852</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K38" t="n">
-        <v>225.0743319754417</v>
+        <v>225.074331975442</v>
       </c>
       <c r="L38" t="n">
-        <v>412.9225820627738</v>
+        <v>412.9225820627743</v>
       </c>
       <c r="M38" t="n">
-        <v>642.5250891064584</v>
+        <v>642.5250891064591</v>
       </c>
       <c r="N38" t="n">
-        <v>878.8417802023819</v>
+        <v>878.8417802023828</v>
       </c>
       <c r="O38" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641009</v>
       </c>
       <c r="P38" t="n">
         <v>1253.948421109685</v>
       </c>
       <c r="Q38" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R38" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S38" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332114</v>
       </c>
       <c r="T38" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="U38" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867899</v>
       </c>
       <c r="V38" t="n">
-        <v>1004.053401391386</v>
+        <v>705.2796730314089</v>
       </c>
       <c r="W38" t="n">
-        <v>705.2796730314087</v>
+        <v>705.2796730314089</v>
       </c>
       <c r="X38" t="n">
-        <v>705.2796730314087</v>
+        <v>366.0724428316162</v>
       </c>
       <c r="Y38" t="n">
-        <v>705.2796730314087</v>
+        <v>366.0724428316162</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>349.733019168028</v>
+        <v>156.9541800103432</v>
       </c>
       <c r="C39" t="n">
-        <v>199.0787887281202</v>
+        <v>156.9541800103432</v>
       </c>
       <c r="D39" t="n">
-        <v>199.0787887281202</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="E39" t="n">
-        <v>62.63229783900789</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="F39" t="n">
-        <v>62.63229783900789</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="G39" t="n">
-        <v>35.80881007221427</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="H39" t="n">
-        <v>35.80881007221427</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="I39" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="J39" t="n">
-        <v>54.01717302604606</v>
+        <v>54.01717302604607</v>
       </c>
       <c r="K39" t="n">
         <v>151.2248341115959</v>
       </c>
       <c r="L39" t="n">
-        <v>312.0421823624365</v>
+        <v>483.6818404304127</v>
       </c>
       <c r="M39" t="n">
-        <v>644.4991886812531</v>
+        <v>683.9300648868375</v>
       </c>
       <c r="N39" t="n">
-        <v>859.4130069770868</v>
+        <v>898.8438831826711</v>
       </c>
       <c r="O39" t="n">
-        <v>1041.574297016166</v>
+        <v>1081.00517322175</v>
       </c>
       <c r="P39" t="n">
-        <v>1286.377318020766</v>
+        <v>1214.639175042994</v>
       </c>
       <c r="Q39" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R39" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S39" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="T39" t="n">
-        <v>1171.011561238155</v>
+        <v>1171.011561238156</v>
       </c>
       <c r="U39" t="n">
-        <v>1171.011561238155</v>
+        <v>961.0256987891814</v>
       </c>
       <c r="V39" t="n">
-        <v>948.4715596092221</v>
+        <v>738.4856971602485</v>
       </c>
       <c r="W39" t="n">
-        <v>718.354313742509</v>
+        <v>525.5754745848244</v>
       </c>
       <c r="X39" t="n">
-        <v>529.0472360925207</v>
+        <v>336.268396934836</v>
       </c>
       <c r="Y39" t="n">
-        <v>349.733019168028</v>
+        <v>156.9541800103432</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>197.0703305658344</v>
+        <v>308.9535759526483</v>
       </c>
       <c r="C40" t="n">
-        <v>26.86521263182357</v>
+        <v>308.9535759526483</v>
       </c>
       <c r="D40" t="n">
-        <v>26.86521263182357</v>
+        <v>308.9535759526483</v>
       </c>
       <c r="E40" t="n">
-        <v>26.86521263182357</v>
+        <v>308.9535759526483</v>
       </c>
       <c r="F40" t="n">
-        <v>26.86521263182357</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="G40" t="n">
-        <v>26.86521263182357</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="H40" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="I40" t="n">
-        <v>26.86521263182357</v>
+        <v>26.86521263182358</v>
       </c>
       <c r="J40" t="n">
-        <v>26.86521263182357</v>
+        <v>65.33151044026184</v>
       </c>
       <c r="K40" t="n">
-        <v>220.83960264071</v>
+        <v>259.3059004491483</v>
       </c>
       <c r="L40" t="n">
-        <v>277.5410718178443</v>
+        <v>566.9332986870592</v>
       </c>
       <c r="M40" t="n">
-        <v>609.998078136661</v>
+        <v>628.834931760946</v>
       </c>
       <c r="N40" t="n">
-        <v>940.8905024664567</v>
+        <v>723.270019058512</v>
       </c>
       <c r="O40" t="n">
-        <v>1230.906355712533</v>
+        <v>1022.402219330329</v>
       </c>
       <c r="P40" t="n">
-        <v>1259.015622802647</v>
+        <v>1259.015622802648</v>
       </c>
       <c r="Q40" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="R40" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="S40" t="n">
-        <v>1343.260631591178</v>
+        <v>1343.260631591179</v>
       </c>
       <c r="T40" t="n">
-        <v>1343.260631591178</v>
+        <v>1111.749375455782</v>
       </c>
       <c r="U40" t="n">
-        <v>1343.260631591178</v>
+        <v>826.3643002384877</v>
       </c>
       <c r="V40" t="n">
-        <v>1122.801134726332</v>
+        <v>826.3643002384877</v>
       </c>
       <c r="W40" t="n">
-        <v>839.4707326575092</v>
+        <v>543.0338981696652</v>
       </c>
       <c r="X40" t="n">
-        <v>605.3904104404922</v>
+        <v>308.9535759526483</v>
       </c>
       <c r="Y40" t="n">
-        <v>382.2783492571356</v>
+        <v>308.9535759526483</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>548.3614309325287</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="C41" t="n">
-        <v>419.7694771248864</v>
+        <v>366.0724428316161</v>
       </c>
       <c r="D41" t="n">
-        <v>419.7694771248864</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="E41" t="n">
-        <v>419.7694771248864</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="F41" t="n">
-        <v>419.7694771248864</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G41" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="H41" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I41" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J41" t="n">
-        <v>92.99015204997818</v>
+        <v>92.99015204997852</v>
       </c>
       <c r="K41" t="n">
-        <v>225.0743319754413</v>
+        <v>225.0743319754417</v>
       </c>
       <c r="L41" t="n">
-        <v>412.9225820627734</v>
+        <v>412.9225820627738</v>
       </c>
       <c r="M41" t="n">
-        <v>642.5250891064582</v>
+        <v>642.5250891064584</v>
       </c>
       <c r="N41" t="n">
         <v>878.8417802023819</v>
@@ -7438,25 +7438,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S41" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T41" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U41" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V41" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W41" t="n">
-        <v>1226.775891332114</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X41" t="n">
-        <v>887.5686611323213</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="Y41" t="n">
-        <v>887.5686611323213</v>
+        <v>705.2796730314087</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.747264402539</v>
+        <v>506.8105759012212</v>
       </c>
       <c r="C42" t="n">
-        <v>368.0930339626312</v>
+        <v>356.1563454613134</v>
       </c>
       <c r="D42" t="n">
-        <v>368.0930339626312</v>
+        <v>356.1563454613134</v>
       </c>
       <c r="E42" t="n">
-        <v>231.6465430735189</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="F42" t="n">
-        <v>231.6465430735189</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="G42" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H42" t="n">
-        <v>35.80881007221427</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="I42" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J42" t="n">
-        <v>54.01717302604606</v>
+        <v>248.7521680057735</v>
       </c>
       <c r="K42" t="n">
-        <v>222.9629770893675</v>
+        <v>345.9598290913233</v>
       </c>
       <c r="L42" t="n">
-        <v>555.4199834081842</v>
+        <v>506.7771773421639</v>
       </c>
       <c r="M42" t="n">
-        <v>755.6682078646089</v>
+        <v>707.0254017985886</v>
       </c>
       <c r="N42" t="n">
-        <v>970.5820261604425</v>
+        <v>921.9392200944222</v>
       </c>
       <c r="O42" t="n">
-        <v>1152.743316199522</v>
+        <v>1104.100510133502</v>
       </c>
       <c r="P42" t="n">
-        <v>1286.377318020766</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q42" t="n">
         <v>1343.260631591178</v>
@@ -7520,22 +7520,22 @@
         <v>1230.148920794168</v>
       </c>
       <c r="T42" t="n">
-        <v>1150.718728822678</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U42" t="n">
-        <v>1150.718728822678</v>
+        <v>847.9139879921709</v>
       </c>
       <c r="V42" t="n">
-        <v>928.1787271937449</v>
+        <v>847.9139879921709</v>
       </c>
       <c r="W42" t="n">
-        <v>698.0614813270317</v>
+        <v>847.9139879921709</v>
       </c>
       <c r="X42" t="n">
-        <v>698.0614813270317</v>
+        <v>658.6069103421826</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.747264402539</v>
+        <v>658.6069103421826</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>677.2986291028149</v>
+        <v>1083.058901996875</v>
       </c>
       <c r="C43" t="n">
-        <v>507.093511168804</v>
+        <v>912.8537840628646</v>
       </c>
       <c r="D43" t="n">
-        <v>351.4603980713188</v>
+        <v>757.2206709653794</v>
       </c>
       <c r="E43" t="n">
-        <v>351.4603980713188</v>
+        <v>601.6618588245819</v>
       </c>
       <c r="F43" t="n">
-        <v>194.1344632842917</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="G43" t="n">
-        <v>26.86521263182357</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="H43" t="n">
-        <v>26.86521263182357</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I43" t="n">
         <v>26.86521263182357</v>
       </c>
       <c r="J43" t="n">
-        <v>26.86521263182357</v>
+        <v>65.33151044026184</v>
       </c>
       <c r="K43" t="n">
-        <v>55.98452989802864</v>
+        <v>259.3059004491483</v>
       </c>
       <c r="L43" t="n">
-        <v>352.6697335806354</v>
+        <v>566.9332986870592</v>
       </c>
       <c r="M43" t="n">
-        <v>685.1267398994521</v>
+        <v>628.834931760946</v>
       </c>
       <c r="N43" t="n">
-        <v>1016.019164229248</v>
+        <v>807.5150278470429</v>
       </c>
       <c r="O43" t="n">
-        <v>1315.151364501065</v>
+        <v>1106.64722811886</v>
       </c>
       <c r="P43" t="n">
         <v>1343.260631591178</v>
@@ -7593,28 +7593,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R43" t="n">
-        <v>1263.639977360439</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S43" t="n">
-        <v>1077.986328330093</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T43" t="n">
-        <v>846.4750721946963</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U43" t="n">
-        <v>846.4750721946963</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V43" t="n">
-        <v>846.4750721946963</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W43" t="n">
-        <v>846.4750721946963</v>
+        <v>1268.266920688177</v>
       </c>
       <c r="X43" t="n">
-        <v>677.2986291028149</v>
+        <v>1268.266920688177</v>
       </c>
       <c r="Y43" t="n">
-        <v>677.2986291028149</v>
+        <v>1268.266920688177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>664.8461711915934</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="C44" t="n">
-        <v>664.8461711915934</v>
+        <v>366.0724428316161</v>
       </c>
       <c r="D44" t="n">
-        <v>664.8461711915934</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="E44" t="n">
-        <v>325.6389409918008</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="F44" t="n">
-        <v>325.6389409918008</v>
+        <v>26.86521263182357</v>
       </c>
       <c r="G44" t="n">
         <v>26.86521263182357</v>
@@ -7687,13 +7687,13 @@
         <v>1343.260631591178</v>
       </c>
       <c r="W44" t="n">
-        <v>1343.260631591178</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="X44" t="n">
-        <v>1343.260631591178</v>
+        <v>705.2796730314087</v>
       </c>
       <c r="Y44" t="n">
-        <v>1004.053401391386</v>
+        <v>705.2796730314087</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>568.4867074562316</v>
+        <v>459.1613099999508</v>
       </c>
       <c r="C45" t="n">
-        <v>417.8324770163238</v>
+        <v>308.507079560043</v>
       </c>
       <c r="D45" t="n">
-        <v>287.7435096378041</v>
+        <v>308.507079560043</v>
       </c>
       <c r="E45" t="n">
-        <v>151.2970187486918</v>
+        <v>172.0605886709307</v>
       </c>
       <c r="F45" t="n">
-        <v>26.86521263182357</v>
+        <v>172.0605886709307</v>
       </c>
       <c r="G45" t="n">
-        <v>26.86521263182357</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H45" t="n">
         <v>26.86521263182357</v>
@@ -7742,10 +7742,10 @@
         <v>727.2042251146949</v>
       </c>
       <c r="O45" t="n">
-        <v>1059.661231433512</v>
+        <v>909.3655151537741</v>
       </c>
       <c r="P45" t="n">
-        <v>1286.377318020766</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q45" t="n">
         <v>1343.260631591178</v>
@@ -7754,25 +7754,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S45" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T45" t="n">
-        <v>1343.260631591178</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U45" t="n">
-        <v>1133.274769142204</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="V45" t="n">
-        <v>1088.904336471674</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="W45" t="n">
-        <v>1088.904336471674</v>
+        <v>827.7826045744318</v>
       </c>
       <c r="X45" t="n">
-        <v>899.5972588216857</v>
+        <v>638.4755269244436</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.2830418971929</v>
+        <v>459.1613099999508</v>
       </c>
     </row>
     <row r="46">
@@ -7806,52 +7806,52 @@
         <v>26.86521263182357</v>
       </c>
       <c r="J46" t="n">
-        <v>26.86521263182357</v>
+        <v>65.33151044026184</v>
       </c>
       <c r="K46" t="n">
-        <v>220.83960264071</v>
+        <v>259.3059004491483</v>
       </c>
       <c r="L46" t="n">
-        <v>520.226274327573</v>
+        <v>566.9332986870592</v>
       </c>
       <c r="M46" t="n">
-        <v>852.6832806463898</v>
+        <v>685.1267398994521</v>
       </c>
       <c r="N46" t="n">
-        <v>1183.575704976186</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O46" t="n">
-        <v>1230.906355712533</v>
+        <v>1315.151364501065</v>
       </c>
       <c r="P46" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q46" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R46" t="n">
-        <v>1314.570158132272</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S46" t="n">
-        <v>1314.570158132272</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T46" t="n">
-        <v>1083.058901996875</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.058901996875</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V46" t="n">
-        <v>1083.058901996875</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.058901996875</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X46" t="n">
-        <v>1083.058901996875</v>
+        <v>1109.180309374162</v>
       </c>
       <c r="Y46" t="n">
-        <v>1083.058901996875</v>
+        <v>1109.180309374162</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.599768540391239</v>
+        <v>3.59976854039121</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>78.58033244587179</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>237.6256012457241</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>118.7304929525081</v>
+        <v>8.2105614267482</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156806</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.61769019229864</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>273.2882558029594</v>
+        <v>29.18984329530963</v>
       </c>
       <c r="N13" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>158.1963092844784</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
         <v>101.9350150692923</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.599768540391239</v>
+        <v>3.59976854039121</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>197.3108253983802</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>245.8361626724723</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156806</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229862</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>31.79757386188656</v>
       </c>
       <c r="L16" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>273.2882558029594</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>15.499204548726</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602833</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.599768540391239</v>
+        <v>3.59976854039121</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>118.7304929525082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>78.58033244587182</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>245.8361626724725</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156806</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>14.61473942277418</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>273.2882558029595</v>
       </c>
       <c r="N19" t="n">
         <v>268.0356382773604</v>
@@ -9339,10 +9339,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>37.03269086298306</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602833</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.599768540391239</v>
+        <v>3.59976854039121</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>63.7666012949538</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>133.5442241034262</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.6088102673422213</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13.61769019229864</v>
+        <v>13.61769019229862</v>
       </c>
       <c r="K22" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>273.2882558029594</v>
       </c>
       <c r="N22" t="n">
-        <v>268.0356382773604</v>
+        <v>48.21696816832487</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.61104885611267</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>133.5442241034261</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>63.76660129495392</v>
+        <v>0.6088102673427898</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9801,13 +9801,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>253.4605344048249</v>
+        <v>31.79757386188659</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>273.2882558029595</v>
       </c>
       <c r="N25" t="n">
-        <v>234.5649650641172</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
         <v>254.3449995307766</v>
@@ -9816,7 +9816,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602834</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>237.6256012457241</v>
       </c>
       <c r="L27" t="n">
-        <v>173.3733919878545</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>8.210561426748228</v>
       </c>
       <c r="P27" t="n">
-        <v>23.93743341052527</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156807</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52.4725364634484</v>
+        <v>48.14401961403981</v>
       </c>
       <c r="K28" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>273.2882558029594</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O28" t="n">
-        <v>10.24658702312681</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>210.6102387699041</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>118.7304929525082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.58033244587217</v>
+        <v>197.3108253983803</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>13.61769019229864</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
-        <v>138.5655541671879</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>268.0356382773604</v>
+        <v>29.18984329530971</v>
       </c>
       <c r="O31" t="n">
         <v>254.3449995307766</v>
@@ -10290,7 +10290,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.83904659602834</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>78.58033244587179</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.6088102673422782</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>118.7304929525081</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229864</v>
       </c>
       <c r="K34" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
-        <v>273.2882558029594</v>
+        <v>262.235534029925</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O34" t="n">
-        <v>10.24658702312692</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P34" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602834</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>237.6256012457241</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>8.210561426748257</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.3108253983808</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156807</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>203.5529663606406</v>
       </c>
       <c r="M37" t="n">
-        <v>273.2882558029596</v>
+        <v>273.2882558029594</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>206.2817219204957</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602834</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>173.3733919878547</v>
       </c>
       <c r="M39" t="n">
-        <v>133.5442241034262</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>112.2919385690465</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>72.46277068461838</v>
       </c>
       <c r="R39" t="n">
         <v>22.48846763156807</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>13.61769019229864</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>273.2882558029594</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>268.0356382773604</v>
+        <v>29.18984329531017</v>
       </c>
       <c r="O40" t="n">
-        <v>245.1365681916452</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
         <v>101.9350150692923</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>72.46277068461775</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>173.3733919878546</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>49.13414754143461</v>
       </c>
       <c r="R42" t="n">
         <v>22.48846763156807</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>13.61769019229864</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>242.4078126317904</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>273.2882558029594</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>268.0356382773604</v>
+        <v>114.2858117685737</v>
       </c>
       <c r="O43" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
         <v>16.83904659602834</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>151.8138548280176</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>94.02230784445487</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>245.8361626724726</v>
       </c>
       <c r="R45" t="n">
         <v>22.48846763156807</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>13.61769019229864</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>245.1365681916452</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>273.2882558029594</v>
+        <v>56.86041226111728</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602834</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>8.417632379864187</v>
+        <v>8.417632379864196</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>53.42858858430401</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682621</v>
       </c>
       <c r="F11" t="n">
-        <v>361.2166808641563</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>71.04247464923532</v>
+        <v>226.3915343271263</v>
       </c>
       <c r="H11" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I11" t="n">
-        <v>53.16006395033762</v>
+        <v>53.1600639503376</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>2.870583305722107</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>49.7429211184791</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>93.26630772724536</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>96.30895008681151</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>101.7539435716037</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1961435740429</v>
+        <v>65.73527987695223</v>
       </c>
       <c r="U13" t="n">
         <v>282.5312244651214</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>328.3827435531011</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>45.77155959770431</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752732</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923526</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>214.5480392462748</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>53.1600639503376</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>115.319892856474</v>
+        <v>115.3198928564739</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>31.47388678360079</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847905</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23576,19 +23576,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>92.21861515775539</v>
       </c>
       <c r="E15" t="n">
-        <v>93.26630772724536</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23667,13 +23667,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H16" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.82444768843243</v>
+        <v>78.82444768843241</v>
       </c>
       <c r="S16" t="n">
         <v>183.7971125400421</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>31.47867066651909</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.0325973657799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>146.6178193560588</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>45.77155959770431</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>76.91033618752738</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>71.04247464923532</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H17" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>53.1600639503376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>34.15560534539128</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>31.47388678360068</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847899</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23813,10 +23813,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
@@ -23828,10 +23828,10 @@
         <v>117.6962971812177</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I18" t="n">
-        <v>8.854161465986792</v>
+        <v>8.854161465986778</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T18" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>38.52524645019324</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.70348425752925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,16 +23892,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>53.35949770623976</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>165.5965581459434</v>
@@ -23910,7 +23910,7 @@
         <v>145.2555273384648</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4439188072657</v>
+        <v>102.4439188072656</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>14.93411327339516</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,22 +23974,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>45.77155959770431</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682621</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752732</v>
       </c>
       <c r="G20" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923526</v>
       </c>
       <c r="H20" t="n">
-        <v>298.5829100630798</v>
+        <v>118.1168118431762</v>
       </c>
       <c r="I20" t="n">
-        <v>53.16006395033762</v>
+        <v>53.1600639503376</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.7511202595727</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V20" t="n">
-        <v>2.870583305722164</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>31.47388678360079</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>349.7611335491869</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>129.5780393327468</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>117.6962971812177</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>32.94623960514209</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,13 +24138,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.01199919065140875</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>78.82444768843241</v>
       </c>
       <c r="S22" t="n">
         <v>183.7971125400421</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>245.75303801486</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.7038071779055</v>
+        <v>91.9596623961574</v>
       </c>
       <c r="C23" t="n">
-        <v>53.42858858430412</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>62.74253173682632</v>
+        <v>62.74253173682621</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752732</v>
       </c>
       <c r="G23" t="n">
         <v>406.8576325470299</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V23" t="n">
-        <v>2.870583305722221</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24287,7 +24287,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>24.1757333127661</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.854161465986792</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.3241027821662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>165.5965581459434</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S25" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>32.28214838227478</v>
+        <v>165.9019518205135</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.67464035648834</v>
+        <v>312.4549274374783</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24451,13 +24451,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>62.74253173682632</v>
+        <v>62.74253173682627</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752738</v>
       </c>
       <c r="G26" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923532</v>
       </c>
       <c r="H26" t="n">
         <v>298.5829100630798</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T26" t="n">
-        <v>31.28502203966931</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0213226369596</v>
@@ -24508,7 +24508,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>49.74292111847916</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>47.3794079161806</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H27" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I27" t="n">
-        <v>8.854161465986792</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>134.236564637516</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,19 +24603,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>141.6965603711149</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H28" t="n">
         <v>145.2555273384648</v>
@@ -24651,7 +24651,7 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.7154164568329</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682627</v>
       </c>
       <c r="F29" t="n">
         <v>76.91033618752738</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8576325470299</v>
+        <v>111.0716414706525</v>
       </c>
       <c r="H29" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I29" t="n">
-        <v>1.651250729171927</v>
+        <v>53.16006395033762</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>76.4801588734708</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
         <v>117.6962971812177</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>37.39456348915078</v>
       </c>
     </row>
     <row r="31">
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>44.19324797028553</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>102.4439188072657</v>
@@ -24894,7 +24894,7 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24903,10 +24903,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>26.73096537432247</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.95966239615757</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>53.42858858430407</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682627</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752738</v>
       </c>
       <c r="G32" t="n">
         <v>406.8576325470299</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U32" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V32" t="n">
-        <v>2.870583305722164</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>31.47388678360079</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>96.73981091222748</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22.34997915460097</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>117.6962971812177</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>114.8689567414394</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>37.44750932190269</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>100.5569253998196</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H34" t="n">
         <v>145.2555273384648</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S34" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.7038071779053</v>
+        <v>60.67464035648828</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25162,16 +25162,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682627</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>76.91033618752738</v>
       </c>
       <c r="G35" t="n">
         <v>406.8576325470299</v>
       </c>
       <c r="H35" t="n">
-        <v>298.5829100630798</v>
+        <v>2.796918986702337</v>
       </c>
       <c r="I35" t="n">
         <v>53.16006395033762</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>31.47388678360068</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>49.74292111847899</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>56.71064409081015</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I36" t="n">
         <v>8.854161465986792</v>
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>150.5058401392338</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>117.0889526023589</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>182.996005992412</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.2555273384648</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S37" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>3.850970760005907</v>
       </c>
     </row>
     <row r="38">
@@ -25399,10 +25399,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>62.74253173682627</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>76.91033618752738</v>
+        <v>76.91033618752726</v>
       </c>
       <c r="G38" t="n">
         <v>406.8576325470299</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V38" t="n">
-        <v>2.870583305722164</v>
+        <v>34.15560534539128</v>
       </c>
       <c r="W38" t="n">
-        <v>71.50305360501801</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847899</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25472,25 +25472,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>91.14104429209205</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H39" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.854161465986792</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>17.03495305837617</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25560,13 +25560,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>21.7407230900051</v>
       </c>
       <c r="G40" t="n">
         <v>165.5965581459434</v>
       </c>
       <c r="H40" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>102.4439188072657</v>
@@ -25602,13 +25602,13 @@
         <v>183.7971125400421</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>45.06464983118562</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>60.67464035648828</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>261.9377122125328</v>
+        <v>53.42858858430407</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>45.77155959770431</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>71.04247464923532</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H41" t="n">
         <v>298.5829100630798</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>53.16006395033762</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T41" t="n">
         <v>211.7511202595727</v>
@@ -25693,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>49.7429211184791</v>
+        <v>89.77208793989632</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>56.71064409081026</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.963160150317776</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.854161465986792</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>91.8906895977176</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U43" t="n">
         <v>282.5312244651214</v>
@@ -25848,10 +25848,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>206.2533242541624</v>
       </c>
       <c r="X43" t="n">
-        <v>64.25484033388412</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.67464035648828</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>53.42858858430407</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>45.77155959770431</v>
       </c>
       <c r="E44" t="n">
-        <v>62.74253173682627</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>111.0716414706525</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H44" t="n">
         <v>298.5829100630798</v>
@@ -25927,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>71.50305360501801</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>49.7429211184791</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.71064409081026</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6962971812177</v>
+        <v>50.13593339257552</v>
       </c>
       <c r="H45" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>8.854161465986792</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V45" t="n">
-        <v>176.3878732688186</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>157.4957452008749</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>50.42087896411536</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S46" t="n">
         <v>183.7971125400421</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U46" t="n">
         <v>282.5312244651214</v>
@@ -26088,7 +26088,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>369962.4684708468</v>
+        <v>369962.4684708469</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>369962.4684708469</v>
+        <v>369962.4684708468</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>575677.5082070945</v>
+      </c>
+      <c r="C2" t="n">
         <v>575677.5082070944</v>
       </c>
-      <c r="C2" t="n">
-        <v>575677.5082070943</v>
-      </c>
       <c r="D2" t="n">
-        <v>575716.5756054387</v>
+        <v>575716.5756054386</v>
       </c>
       <c r="E2" t="n">
-        <v>291558.8861055278</v>
+        <v>291558.8861055281</v>
       </c>
       <c r="F2" t="n">
+        <v>291558.886105528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>291558.886105528</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291558.8861055279</v>
+      </c>
+      <c r="I2" t="n">
+        <v>291558.8861055279</v>
+      </c>
+      <c r="J2" t="n">
+        <v>291558.886105528</v>
+      </c>
+      <c r="K2" t="n">
+        <v>291558.8861055279</v>
+      </c>
+      <c r="L2" t="n">
+        <v>291558.8861055279</v>
+      </c>
+      <c r="M2" t="n">
+        <v>291558.886105528</v>
+      </c>
+      <c r="N2" t="n">
         <v>291558.8861055281</v>
       </c>
-      <c r="G2" t="n">
-        <v>291558.8861055279</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>291558.8861055281</v>
-      </c>
-      <c r="I2" t="n">
-        <v>291558.8861055278</v>
-      </c>
-      <c r="J2" t="n">
-        <v>291558.8861055279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>291558.886105528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>291558.886105528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>291558.8861055281</v>
-      </c>
-      <c r="N2" t="n">
-        <v>291558.8861055279</v>
-      </c>
-      <c r="O2" t="n">
-        <v>291558.886105528</v>
       </c>
       <c r="P2" t="n">
         <v>291558.886105528</v>
@@ -26374,7 +26374,7 @@
         <v>130694.7925215629</v>
       </c>
       <c r="E3" t="n">
-        <v>412027.5189573164</v>
+        <v>412027.5189573165</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83686.48060876197</v>
+        <v>83686.48060876201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>24027.49384351416</v>
       </c>
       <c r="F4" t="n">
+        <v>24027.49384351416</v>
+      </c>
+      <c r="G4" t="n">
         <v>24027.49384351417</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>24027.49384351416</v>
       </c>
-      <c r="H4" t="n">
-        <v>24027.49384351417</v>
-      </c>
       <c r="I4" t="n">
-        <v>24027.49384351416</v>
+        <v>24027.49384351418</v>
       </c>
       <c r="J4" t="n">
         <v>24027.49384351416</v>
@@ -26447,19 +26447,19 @@
         <v>24027.49384351417</v>
       </c>
       <c r="L4" t="n">
+        <v>24027.49384351417</v>
+      </c>
+      <c r="M4" t="n">
         <v>24027.49384351416</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>24027.49384351419</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24027.49384351417</v>
       </c>
       <c r="O4" t="n">
         <v>24027.49384351416</v>
       </c>
       <c r="P4" t="n">
-        <v>24027.49384351416</v>
+        <v>24027.49384351417</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>32203.88383393313</v>
       </c>
       <c r="G5" t="n">
-        <v>32203.88383393313</v>
+        <v>32203.88383393314</v>
       </c>
       <c r="H5" t="n">
         <v>32203.88383393313</v>
@@ -26502,10 +26502,10 @@
         <v>32203.88383393313</v>
       </c>
       <c r="M5" t="n">
+        <v>32203.88383393313</v>
+      </c>
+      <c r="N5" t="n">
         <v>32203.88383393314</v>
-      </c>
-      <c r="N5" t="n">
-        <v>32203.88383393313</v>
       </c>
       <c r="O5" t="n">
         <v>32203.88383393313</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131327.6984199177</v>
+        <v>131323.3688521314</v>
       </c>
       <c r="C6" t="n">
-        <v>131327.6984199176</v>
+        <v>131323.3688521313</v>
       </c>
       <c r="D6" t="n">
-        <v>50536.01774208294</v>
+        <v>50531.81025991624</v>
       </c>
       <c r="E6" t="n">
-        <v>-176700.0105292359</v>
+        <v>-177592.2107910895</v>
       </c>
       <c r="F6" t="n">
-        <v>235327.5084280808</v>
+        <v>234435.308166227</v>
       </c>
       <c r="G6" t="n">
-        <v>235327.5084280806</v>
+        <v>234435.3081662269</v>
       </c>
       <c r="H6" t="n">
-        <v>235327.5084280808</v>
+        <v>234435.3081662268</v>
       </c>
       <c r="I6" t="n">
-        <v>235327.5084280805</v>
+        <v>234435.3081662268</v>
       </c>
       <c r="J6" t="n">
-        <v>235327.5084280806</v>
+        <v>234435.308166227</v>
       </c>
       <c r="K6" t="n">
-        <v>235327.5084280807</v>
+        <v>234435.3081662268</v>
       </c>
       <c r="L6" t="n">
-        <v>235327.5084280807</v>
+        <v>234435.3081662268</v>
       </c>
       <c r="M6" t="n">
-        <v>151641.0278193188</v>
+        <v>150748.827557465</v>
       </c>
       <c r="N6" t="n">
-        <v>235327.5084280806</v>
+        <v>234435.308166227</v>
       </c>
       <c r="O6" t="n">
-        <v>235327.5084280807</v>
+        <v>234435.308166227</v>
       </c>
       <c r="P6" t="n">
-        <v>235327.5084280807</v>
+        <v>234435.3081662269</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>152.6070247818962</v>
       </c>
       <c r="E3" t="n">
-        <v>540.6569831994136</v>
+        <v>540.6569831994137</v>
       </c>
       <c r="F3" t="n">
-        <v>540.6569831994136</v>
+        <v>540.6569831994137</v>
       </c>
       <c r="G3" t="n">
-        <v>540.6569831994136</v>
+        <v>540.6569831994137</v>
       </c>
       <c r="H3" t="n">
-        <v>540.6569831994136</v>
+        <v>540.6569831994137</v>
       </c>
       <c r="I3" t="n">
         <v>540.6569831994136</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="F4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="G4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="H4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="I4" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="J4" t="n">
         <v>335.8151578977946</v>
@@ -26822,10 +26822,10 @@
         <v>335.8151578977946</v>
       </c>
       <c r="M4" t="n">
+        <v>335.8151578977946</v>
+      </c>
+      <c r="N4" t="n">
         <v>335.8151578977947</v>
-      </c>
-      <c r="N4" t="n">
-        <v>335.8151578977946</v>
       </c>
       <c r="O4" t="n">
         <v>335.8151578977946</v>
@@ -26968,7 +26968,7 @@
         <v>152.6070247818962</v>
       </c>
       <c r="E3" t="n">
-        <v>388.0499584175174</v>
+        <v>388.0499584175175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27882,10 +27882,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L8" t="n">
-        <v>56.4339664610682</v>
+        <v>56.43396646106821</v>
       </c>
       <c r="M8" t="n">
-        <v>42.00059636060509</v>
+        <v>42.0005963606051</v>
       </c>
       <c r="N8" t="n">
         <v>39.65094179247474</v>
@@ -27894,7 +27894,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P8" t="n">
-        <v>62.08001639703511</v>
+        <v>62.08001639703512</v>
       </c>
       <c r="Q8" t="n">
         <v>78.24807792626756</v>
@@ -27952,19 +27952,19 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I9" t="n">
-        <v>53.38798903266146</v>
+        <v>53.38798903266147</v>
       </c>
       <c r="J9" t="n">
-        <v>51.43211845760855</v>
+        <v>51.43211845760856</v>
       </c>
       <c r="K9" t="n">
-        <v>36.59190862205906</v>
+        <v>36.59190862205907</v>
       </c>
       <c r="L9" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M9" t="n">
-        <v>9.216293543178466</v>
+        <v>9.21629354317848</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -27973,7 +27973,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P9" t="n">
-        <v>24.40218892352032</v>
+        <v>24.40218892352033</v>
       </c>
       <c r="Q9" t="n">
         <v>49.08744703089221</v>
@@ -28034,13 +28034,13 @@
         <v>123.4876772080058</v>
       </c>
       <c r="J10" t="n">
-        <v>63.09087915316801</v>
+        <v>63.09087915316802</v>
       </c>
       <c r="K10" t="n">
         <v>51.88619524178843</v>
       </c>
       <c r="L10" t="n">
-        <v>46.76134641422896</v>
+        <v>46.76134641422897</v>
       </c>
       <c r="M10" t="n">
         <v>47.16400664275908</v>
@@ -28049,10 +28049,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O10" t="n">
-        <v>51.0994709558466</v>
+        <v>51.09947095584661</v>
       </c>
       <c r="P10" t="n">
-        <v>56.23986070246484</v>
+        <v>56.23986070246485</v>
       </c>
       <c r="Q10" t="n">
         <v>75.43459031707346</v>
@@ -31515,22 +31515,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6134955770126478</v>
+        <v>0.6134955770126477</v>
       </c>
       <c r="H8" t="n">
-        <v>6.282961578080781</v>
+        <v>6.28296157808078</v>
       </c>
       <c r="I8" t="n">
-        <v>23.65178823278013</v>
+        <v>23.65178823278012</v>
       </c>
       <c r="J8" t="n">
-        <v>52.06967022947726</v>
+        <v>52.06967022947725</v>
       </c>
       <c r="K8" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L8" t="n">
-        <v>96.8142032694235</v>
+        <v>96.81420326942349</v>
       </c>
       <c r="M8" t="n">
         <v>107.7244552371222</v>
@@ -31542,7 +31542,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P8" t="n">
-        <v>88.22143084389009</v>
+        <v>88.22143084389008</v>
       </c>
       <c r="Q8" t="n">
         <v>66.25062049212461</v>
@@ -31606,13 +31606,13 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K9" t="n">
-        <v>53.00502671127429</v>
+        <v>53.00502671127428</v>
       </c>
       <c r="L9" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M9" t="n">
-        <v>83.17082850613345</v>
+        <v>83.17082850613343</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -31630,7 +31630,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S9" t="n">
-        <v>6.097082546710663</v>
+        <v>6.097082546710661</v>
       </c>
       <c r="T9" t="n">
         <v>1.323074111080779</v>
@@ -31688,7 +31688,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L10" t="n">
-        <v>40.91369316857593</v>
+        <v>40.91369316857592</v>
       </c>
       <c r="M10" t="n">
         <v>43.13775292318419</v>
@@ -31697,10 +31697,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O10" t="n">
-        <v>38.89727903785121</v>
+        <v>38.8972790378512</v>
       </c>
       <c r="P10" t="n">
-        <v>33.2833419294811</v>
+        <v>33.28334192948109</v>
       </c>
       <c r="Q10" t="n">
         <v>23.04366074206633</v>
@@ -31709,7 +31709,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S10" t="n">
-        <v>4.795863385358934</v>
+        <v>4.795863385358933</v>
       </c>
       <c r="T10" t="n">
         <v>1.175824617171987</v>
@@ -31758,40 +31758,40 @@
         <v>22.25930986609444</v>
       </c>
       <c r="I11" t="n">
-        <v>83.7936817881222</v>
+        <v>83.79368178812221</v>
       </c>
       <c r="J11" t="n">
         <v>184.4727060414924</v>
       </c>
       <c r="K11" t="n">
-        <v>276.4767667403112</v>
+        <v>276.4767667403113</v>
       </c>
       <c r="L11" t="n">
-        <v>342.9938768894129</v>
+        <v>342.993876889413</v>
       </c>
       <c r="M11" t="n">
-        <v>381.6467758842775</v>
+        <v>381.6467758842776</v>
       </c>
       <c r="N11" t="n">
-        <v>387.822219717505</v>
+        <v>387.8222197175051</v>
       </c>
       <c r="O11" t="n">
-        <v>366.20952473584</v>
+        <v>366.2095247358401</v>
       </c>
       <c r="P11" t="n">
         <v>312.551356805245</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.7130524401032</v>
+        <v>234.7130524401033</v>
       </c>
       <c r="R11" t="n">
-        <v>136.5308310387946</v>
+        <v>136.5308310387947</v>
       </c>
       <c r="S11" t="n">
-        <v>49.52852665188599</v>
+        <v>49.528526651886</v>
       </c>
       <c r="T11" t="n">
-        <v>9.514476156604754</v>
+        <v>9.514476156604756</v>
       </c>
       <c r="U11" t="n">
         <v>0.173879632787751</v>
@@ -31837,7 +31837,7 @@
         <v>11.23138374533122</v>
       </c>
       <c r="I12" t="n">
-        <v>40.03921998222073</v>
+        <v>40.03921998222074</v>
       </c>
       <c r="J12" t="n">
         <v>109.8706799537601</v>
@@ -31849,31 +31849,31 @@
         <v>252.5021127668583</v>
       </c>
       <c r="M12" t="n">
-        <v>294.6580558436804</v>
+        <v>294.6580558436805</v>
       </c>
       <c r="N12" t="n">
-        <v>302.4567777994531</v>
+        <v>302.4567777994532</v>
       </c>
       <c r="O12" t="n">
-        <v>276.6888619586659</v>
+        <v>276.688861958666</v>
       </c>
       <c r="P12" t="n">
-        <v>222.0672050427931</v>
+        <v>222.0672050427932</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.4460456512805</v>
+        <v>148.4460456512806</v>
       </c>
       <c r="R12" t="n">
-        <v>72.20320994500851</v>
+        <v>72.20320994500852</v>
       </c>
       <c r="S12" t="n">
         <v>21.60077664008977</v>
       </c>
       <c r="T12" t="n">
-        <v>4.687394033587367</v>
+        <v>4.687394033587369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07650806366029442</v>
+        <v>0.07650806366029443</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9749552156054998</v>
+        <v>0.9749552156055</v>
       </c>
       <c r="H13" t="n">
-        <v>8.668238189656178</v>
+        <v>8.668238189656179</v>
       </c>
       <c r="I13" t="n">
-        <v>29.31956230202722</v>
+        <v>29.31956230202723</v>
       </c>
       <c r="J13" t="n">
-        <v>68.92933374330883</v>
+        <v>68.92933374330885</v>
       </c>
       <c r="K13" t="n">
         <v>113.2720695948935</v>
@@ -31931,7 +31931,7 @@
         <v>152.8286616607785</v>
       </c>
       <c r="N13" t="n">
-        <v>149.1947376753399</v>
+        <v>149.19473767534</v>
       </c>
       <c r="O13" t="n">
         <v>137.8054881112211</v>
@@ -31940,19 +31940,19 @@
         <v>117.9164017128688</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.63920446311145</v>
+        <v>81.63920446311147</v>
       </c>
       <c r="R13" t="n">
-        <v>43.83753178531637</v>
+        <v>43.83753178531639</v>
       </c>
       <c r="S13" t="n">
-        <v>16.99081043923402</v>
+        <v>16.99081043923403</v>
       </c>
       <c r="T13" t="n">
-        <v>4.165717739405316</v>
+        <v>4.165717739405317</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05317937539666369</v>
+        <v>0.0531793753966637</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>22.25930986609444</v>
       </c>
       <c r="I14" t="n">
-        <v>83.7936817881222</v>
+        <v>83.79368178812221</v>
       </c>
       <c r="J14" t="n">
         <v>184.4727060414924</v>
       </c>
       <c r="K14" t="n">
-        <v>276.4767667403112</v>
+        <v>276.4767667403113</v>
       </c>
       <c r="L14" t="n">
-        <v>342.9938768894129</v>
+        <v>342.993876889413</v>
       </c>
       <c r="M14" t="n">
-        <v>381.6467758842775</v>
+        <v>381.6467758842776</v>
       </c>
       <c r="N14" t="n">
-        <v>387.822219717505</v>
+        <v>387.8222197175051</v>
       </c>
       <c r="O14" t="n">
-        <v>366.20952473584</v>
+        <v>366.2095247358401</v>
       </c>
       <c r="P14" t="n">
         <v>312.551356805245</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.7130524401032</v>
+        <v>234.7130524401033</v>
       </c>
       <c r="R14" t="n">
-        <v>136.5308310387946</v>
+        <v>136.5308310387947</v>
       </c>
       <c r="S14" t="n">
-        <v>49.52852665188599</v>
+        <v>49.528526651886</v>
       </c>
       <c r="T14" t="n">
-        <v>9.514476156604754</v>
+        <v>9.514476156604756</v>
       </c>
       <c r="U14" t="n">
         <v>0.173879632787751</v>
@@ -32074,7 +32074,7 @@
         <v>11.23138374533122</v>
       </c>
       <c r="I15" t="n">
-        <v>40.03921998222073</v>
+        <v>40.03921998222074</v>
       </c>
       <c r="J15" t="n">
         <v>109.8706799537601</v>
@@ -32086,31 +32086,31 @@
         <v>252.5021127668583</v>
       </c>
       <c r="M15" t="n">
-        <v>294.6580558436804</v>
+        <v>294.6580558436805</v>
       </c>
       <c r="N15" t="n">
-        <v>302.4567777994531</v>
+        <v>302.4567777994532</v>
       </c>
       <c r="O15" t="n">
-        <v>276.6888619586659</v>
+        <v>276.688861958666</v>
       </c>
       <c r="P15" t="n">
-        <v>222.0672050427931</v>
+        <v>222.0672050427932</v>
       </c>
       <c r="Q15" t="n">
-        <v>148.4460456512805</v>
+        <v>148.4460456512806</v>
       </c>
       <c r="R15" t="n">
-        <v>72.20320994500851</v>
+        <v>72.20320994500852</v>
       </c>
       <c r="S15" t="n">
         <v>21.60077664008977</v>
       </c>
       <c r="T15" t="n">
-        <v>4.687394033587367</v>
+        <v>4.687394033587369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07650806366029442</v>
+        <v>0.07650806366029443</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9749552156054998</v>
+        <v>0.9749552156055</v>
       </c>
       <c r="H16" t="n">
-        <v>8.668238189656178</v>
+        <v>8.668238189656179</v>
       </c>
       <c r="I16" t="n">
-        <v>29.31956230202722</v>
+        <v>29.31956230202723</v>
       </c>
       <c r="J16" t="n">
-        <v>68.92933374330883</v>
+        <v>68.92933374330885</v>
       </c>
       <c r="K16" t="n">
         <v>113.2720695948935</v>
@@ -32168,7 +32168,7 @@
         <v>152.8286616607785</v>
       </c>
       <c r="N16" t="n">
-        <v>149.1947376753399</v>
+        <v>149.19473767534</v>
       </c>
       <c r="O16" t="n">
         <v>137.8054881112211</v>
@@ -32177,19 +32177,19 @@
         <v>117.9164017128688</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.63920446311145</v>
+        <v>81.63920446311147</v>
       </c>
       <c r="R16" t="n">
-        <v>43.83753178531637</v>
+        <v>43.83753178531639</v>
       </c>
       <c r="S16" t="n">
-        <v>16.99081043923402</v>
+        <v>16.99081043923403</v>
       </c>
       <c r="T16" t="n">
-        <v>4.165717739405316</v>
+        <v>4.165717739405317</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05317937539666369</v>
+        <v>0.0531793753966637</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>22.25930986609444</v>
       </c>
       <c r="I17" t="n">
-        <v>83.7936817881222</v>
+        <v>83.79368178812221</v>
       </c>
       <c r="J17" t="n">
         <v>184.4727060414924</v>
       </c>
       <c r="K17" t="n">
-        <v>276.4767667403112</v>
+        <v>276.4767667403113</v>
       </c>
       <c r="L17" t="n">
-        <v>342.9938768894129</v>
+        <v>342.993876889413</v>
       </c>
       <c r="M17" t="n">
-        <v>381.6467758842775</v>
+        <v>381.6467758842776</v>
       </c>
       <c r="N17" t="n">
-        <v>387.822219717505</v>
+        <v>387.8222197175051</v>
       </c>
       <c r="O17" t="n">
-        <v>366.20952473584</v>
+        <v>366.2095247358401</v>
       </c>
       <c r="P17" t="n">
         <v>312.551356805245</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.7130524401032</v>
+        <v>234.7130524401033</v>
       </c>
       <c r="R17" t="n">
-        <v>136.5308310387946</v>
+        <v>136.5308310387947</v>
       </c>
       <c r="S17" t="n">
-        <v>49.52852665188599</v>
+        <v>49.528526651886</v>
       </c>
       <c r="T17" t="n">
-        <v>9.514476156604754</v>
+        <v>9.514476156604756</v>
       </c>
       <c r="U17" t="n">
         <v>0.173879632787751</v>
@@ -32311,7 +32311,7 @@
         <v>11.23138374533122</v>
       </c>
       <c r="I18" t="n">
-        <v>40.03921998222073</v>
+        <v>40.03921998222074</v>
       </c>
       <c r="J18" t="n">
         <v>109.8706799537601</v>
@@ -32323,31 +32323,31 @@
         <v>252.5021127668583</v>
       </c>
       <c r="M18" t="n">
-        <v>294.6580558436804</v>
+        <v>294.6580558436805</v>
       </c>
       <c r="N18" t="n">
-        <v>302.4567777994531</v>
+        <v>302.4567777994532</v>
       </c>
       <c r="O18" t="n">
-        <v>276.6888619586659</v>
+        <v>276.688861958666</v>
       </c>
       <c r="P18" t="n">
-        <v>222.0672050427931</v>
+        <v>222.0672050427932</v>
       </c>
       <c r="Q18" t="n">
-        <v>148.4460456512805</v>
+        <v>148.4460456512806</v>
       </c>
       <c r="R18" t="n">
-        <v>72.20320994500851</v>
+        <v>72.20320994500852</v>
       </c>
       <c r="S18" t="n">
         <v>21.60077664008977</v>
       </c>
       <c r="T18" t="n">
-        <v>4.687394033587367</v>
+        <v>4.687394033587369</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07650806366029442</v>
+        <v>0.07650806366029443</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9749552156054998</v>
+        <v>0.9749552156055</v>
       </c>
       <c r="H19" t="n">
-        <v>8.668238189656178</v>
+        <v>8.668238189656179</v>
       </c>
       <c r="I19" t="n">
-        <v>29.31956230202722</v>
+        <v>29.31956230202723</v>
       </c>
       <c r="J19" t="n">
-        <v>68.92933374330883</v>
+        <v>68.92933374330885</v>
       </c>
       <c r="K19" t="n">
         <v>113.2720695948935</v>
@@ -32405,7 +32405,7 @@
         <v>152.8286616607785</v>
       </c>
       <c r="N19" t="n">
-        <v>149.1947376753399</v>
+        <v>149.19473767534</v>
       </c>
       <c r="O19" t="n">
         <v>137.8054881112211</v>
@@ -32414,19 +32414,19 @@
         <v>117.9164017128688</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.63920446311145</v>
+        <v>81.63920446311147</v>
       </c>
       <c r="R19" t="n">
-        <v>43.83753178531637</v>
+        <v>43.83753178531639</v>
       </c>
       <c r="S19" t="n">
-        <v>16.99081043923402</v>
+        <v>16.99081043923403</v>
       </c>
       <c r="T19" t="n">
-        <v>4.165717739405316</v>
+        <v>4.165717739405317</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05317937539666369</v>
+        <v>0.0531793753966637</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>22.25930986609444</v>
       </c>
       <c r="I20" t="n">
-        <v>83.7936817881222</v>
+        <v>83.79368178812221</v>
       </c>
       <c r="J20" t="n">
         <v>184.4727060414924</v>
       </c>
       <c r="K20" t="n">
-        <v>276.4767667403112</v>
+        <v>276.4767667403113</v>
       </c>
       <c r="L20" t="n">
-        <v>342.9938768894129</v>
+        <v>342.993876889413</v>
       </c>
       <c r="M20" t="n">
-        <v>381.6467758842775</v>
+        <v>381.6467758842776</v>
       </c>
       <c r="N20" t="n">
-        <v>387.822219717505</v>
+        <v>387.8222197175051</v>
       </c>
       <c r="O20" t="n">
-        <v>366.20952473584</v>
+        <v>366.2095247358401</v>
       </c>
       <c r="P20" t="n">
         <v>312.551356805245</v>
       </c>
       <c r="Q20" t="n">
-        <v>234.7130524401032</v>
+        <v>234.7130524401033</v>
       </c>
       <c r="R20" t="n">
-        <v>136.5308310387946</v>
+        <v>136.5308310387947</v>
       </c>
       <c r="S20" t="n">
-        <v>49.52852665188599</v>
+        <v>49.528526651886</v>
       </c>
       <c r="T20" t="n">
-        <v>9.514476156604754</v>
+        <v>9.514476156604756</v>
       </c>
       <c r="U20" t="n">
         <v>0.173879632787751</v>
@@ -32548,7 +32548,7 @@
         <v>11.23138374533122</v>
       </c>
       <c r="I21" t="n">
-        <v>40.03921998222073</v>
+        <v>40.03921998222074</v>
       </c>
       <c r="J21" t="n">
         <v>109.8706799537601</v>
@@ -32560,31 +32560,31 @@
         <v>252.5021127668583</v>
       </c>
       <c r="M21" t="n">
-        <v>294.6580558436804</v>
+        <v>294.6580558436805</v>
       </c>
       <c r="N21" t="n">
-        <v>302.4567777994531</v>
+        <v>302.4567777994532</v>
       </c>
       <c r="O21" t="n">
-        <v>276.6888619586659</v>
+        <v>276.688861958666</v>
       </c>
       <c r="P21" t="n">
-        <v>222.0672050427931</v>
+        <v>222.0672050427932</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.4460456512805</v>
+        <v>148.4460456512806</v>
       </c>
       <c r="R21" t="n">
-        <v>72.20320994500851</v>
+        <v>72.20320994500852</v>
       </c>
       <c r="S21" t="n">
         <v>21.60077664008977</v>
       </c>
       <c r="T21" t="n">
-        <v>4.687394033587367</v>
+        <v>4.687394033587369</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07650806366029442</v>
+        <v>0.07650806366029443</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9749552156054998</v>
+        <v>0.9749552156055</v>
       </c>
       <c r="H22" t="n">
-        <v>8.668238189656178</v>
+        <v>8.668238189656179</v>
       </c>
       <c r="I22" t="n">
-        <v>29.31956230202722</v>
+        <v>29.31956230202723</v>
       </c>
       <c r="J22" t="n">
-        <v>68.92933374330883</v>
+        <v>68.92933374330885</v>
       </c>
       <c r="K22" t="n">
         <v>113.2720695948935</v>
@@ -32642,7 +32642,7 @@
         <v>152.8286616607785</v>
       </c>
       <c r="N22" t="n">
-        <v>149.1947376753399</v>
+        <v>149.19473767534</v>
       </c>
       <c r="O22" t="n">
         <v>137.8054881112211</v>
@@ -32651,19 +32651,19 @@
         <v>117.9164017128688</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.63920446311145</v>
+        <v>81.63920446311147</v>
       </c>
       <c r="R22" t="n">
-        <v>43.83753178531637</v>
+        <v>43.83753178531639</v>
       </c>
       <c r="S22" t="n">
-        <v>16.99081043923402</v>
+        <v>16.99081043923403</v>
       </c>
       <c r="T22" t="n">
-        <v>4.165717739405316</v>
+        <v>4.165717739405317</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05317937539666369</v>
+        <v>0.0531793753966637</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>83.7936817881222</v>
       </c>
       <c r="J41" t="n">
-        <v>184.4727060414922</v>
+        <v>184.4727060414924</v>
       </c>
       <c r="K41" t="n">
         <v>276.4767667403112</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.79286809914632</v>
+        <v>66.79286809914635</v>
       </c>
       <c r="K11" t="n">
         <v>133.4183635610739</v>
       </c>
       <c r="L11" t="n">
-        <v>189.7457071589212</v>
+        <v>189.7457071589213</v>
       </c>
       <c r="M11" t="n">
         <v>231.9217242865503</v>
@@ -35424,13 +35424,13 @@
         <v>238.703728379721</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6456873117436</v>
+        <v>216.6456873117437</v>
       </c>
       <c r="P11" t="n">
         <v>162.2499095643198</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.21435402171105</v>
+        <v>90.2143540217111</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>106.0065550662985</v>
+        <v>27.42622262042678</v>
       </c>
       <c r="K12" t="n">
-        <v>98.18955665207055</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="L12" t="n">
         <v>162.44176590994</v>
       </c>
       <c r="M12" t="n">
-        <v>202.2709337943684</v>
+        <v>202.2709337943685</v>
       </c>
       <c r="N12" t="n">
-        <v>335.8151578977946</v>
+        <v>225.2952263720347</v>
       </c>
       <c r="O12" t="n">
         <v>184.0013030697771</v>
@@ -35509,10 +35509,10 @@
         <v>134.9838402234785</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.45789249536652</v>
+        <v>57.45789249536658</v>
       </c>
       <c r="R12" t="n">
-        <v>48.52533727409241</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>38.85484627114977</v>
       </c>
       <c r="K13" t="n">
-        <v>29.41345178404552</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L13" t="n">
         <v>310.7347456948595</v>
       </c>
       <c r="M13" t="n">
-        <v>335.8151578977946</v>
+        <v>91.71674539014485</v>
       </c>
       <c r="N13" t="n">
-        <v>334.2347720502987</v>
+        <v>66.19913377293838</v>
       </c>
       <c r="O13" t="n">
-        <v>47.80873811752328</v>
+        <v>302.1537376483</v>
       </c>
       <c r="P13" t="n">
-        <v>186.5895083654013</v>
+        <v>239.003437850827</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.09596847326394</v>
+        <v>85.09596847326395</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.79286809914632</v>
+        <v>66.79286809914635</v>
       </c>
       <c r="K14" t="n">
         <v>133.4183635610739</v>
       </c>
       <c r="L14" t="n">
-        <v>189.7457071589212</v>
+        <v>189.7457071589213</v>
       </c>
       <c r="M14" t="n">
         <v>231.9217242865503</v>
@@ -35661,13 +35661,13 @@
         <v>238.703728379721</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6456873117436</v>
+        <v>216.6456873117437</v>
       </c>
       <c r="P14" t="n">
         <v>162.2499095643198</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.21435402171105</v>
+        <v>90.2143540217111</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>27.42622262042676</v>
+        <v>27.42622262042678</v>
       </c>
       <c r="K15" t="n">
-        <v>98.18955665207055</v>
+        <v>98.18955665207058</v>
       </c>
       <c r="L15" t="n">
         <v>162.44176590994</v>
       </c>
       <c r="M15" t="n">
-        <v>202.2709337943684</v>
+        <v>202.2709337943685</v>
       </c>
       <c r="N15" t="n">
-        <v>217.0846649452864</v>
+        <v>217.0846649452865</v>
       </c>
       <c r="O15" t="n">
         <v>184.0013030697771</v>
       </c>
       <c r="P15" t="n">
-        <v>332.2946656218587</v>
+        <v>134.9838402234785</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.45789249536652</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R15" t="n">
-        <v>48.52533727409241</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.85484627114976</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>195.9337272817035</v>
+        <v>61.2110256459321</v>
       </c>
       <c r="L16" t="n">
-        <v>310.7347456948595</v>
+        <v>57.27421129003466</v>
       </c>
       <c r="M16" t="n">
-        <v>62.52690209483519</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="N16" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O16" t="n">
-        <v>63.30794266624928</v>
+        <v>302.1537376483</v>
       </c>
       <c r="P16" t="n">
-        <v>239.0034378508269</v>
+        <v>239.003437850827</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.09596847326394</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>66.79286809914632</v>
+        <v>66.79286809914635</v>
       </c>
       <c r="K17" t="n">
         <v>133.4183635610739</v>
       </c>
       <c r="L17" t="n">
-        <v>189.7457071589212</v>
+        <v>189.7457071589213</v>
       </c>
       <c r="M17" t="n">
         <v>231.9217242865503</v>
@@ -35898,13 +35898,13 @@
         <v>238.703728379721</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6456873117436</v>
+        <v>216.6456873117437</v>
       </c>
       <c r="P17" t="n">
         <v>162.2499095643198</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.21435402171105</v>
+        <v>90.2143540217111</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>27.42622262042676</v>
+        <v>27.42622262042678</v>
       </c>
       <c r="K18" t="n">
-        <v>98.18955665207055</v>
+        <v>98.18955665207058</v>
       </c>
       <c r="L18" t="n">
         <v>162.44176590994</v>
       </c>
       <c r="M18" t="n">
-        <v>202.2709337943684</v>
+        <v>202.2709337943685</v>
       </c>
       <c r="N18" t="n">
-        <v>335.8151578977946</v>
+        <v>217.0846649452865</v>
       </c>
       <c r="O18" t="n">
-        <v>262.5816355156489</v>
+        <v>184.0013030697771</v>
       </c>
       <c r="P18" t="n">
         <v>134.9838402234785</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.45789249536652</v>
+        <v>303.2940551678391</v>
       </c>
       <c r="R18" t="n">
-        <v>48.52533727409241</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>38.85484627114976</v>
+        <v>38.85484627114977</v>
       </c>
       <c r="K19" t="n">
         <v>195.9337272817035</v>
       </c>
       <c r="L19" t="n">
-        <v>71.88895071280881</v>
+        <v>57.27421129003466</v>
       </c>
       <c r="M19" t="n">
-        <v>62.52690209483519</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="N19" t="n">
         <v>334.2347720502987</v>
@@ -36059,10 +36059,10 @@
         <v>302.1537376483</v>
       </c>
       <c r="P19" t="n">
-        <v>239.0034378508269</v>
+        <v>65.42588994390591</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.09596847326394</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>66.79286809914632</v>
+        <v>66.79286809914635</v>
       </c>
       <c r="K20" t="n">
         <v>133.4183635610739</v>
       </c>
       <c r="L20" t="n">
-        <v>189.7457071589212</v>
+        <v>189.7457071589213</v>
       </c>
       <c r="M20" t="n">
         <v>231.9217242865503</v>
@@ -36135,13 +36135,13 @@
         <v>238.703728379721</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6456873117436</v>
+        <v>216.6456873117437</v>
       </c>
       <c r="P20" t="n">
         <v>162.2499095643198</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.21435402171105</v>
+        <v>90.2143540217111</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.42622262042676</v>
+        <v>224.1282377514646</v>
       </c>
       <c r="K21" t="n">
-        <v>98.18955665207055</v>
+        <v>98.18955665207058</v>
       </c>
       <c r="L21" t="n">
-        <v>226.2083672048938</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M21" t="n">
-        <v>335.8151578977946</v>
+        <v>202.2709337943685</v>
       </c>
       <c r="N21" t="n">
-        <v>217.0846649452864</v>
+        <v>217.0846649452865</v>
       </c>
       <c r="O21" t="n">
         <v>184.0013030697771</v>
@@ -36220,10 +36220,10 @@
         <v>134.9838402234785</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.45789249536652</v>
+        <v>58.0667027627088</v>
       </c>
       <c r="R21" t="n">
-        <v>48.52533727409241</v>
+        <v>48.52533727409242</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>195.9337272817035</v>
       </c>
       <c r="L22" t="n">
-        <v>310.7347456948595</v>
+        <v>57.27421129003466</v>
       </c>
       <c r="M22" t="n">
-        <v>335.8151578977946</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="N22" t="n">
-        <v>334.2347720502987</v>
+        <v>114.4161019412632</v>
       </c>
       <c r="O22" t="n">
-        <v>47.80873811752328</v>
+        <v>302.1537376483</v>
       </c>
       <c r="P22" t="n">
-        <v>28.39319908092284</v>
+        <v>239.003437850827</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.77200226008434</v>
+        <v>85.09596847326395</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>133.4183635610739</v>
       </c>
       <c r="L23" t="n">
-        <v>189.7457071589205</v>
+        <v>189.7457071589212</v>
       </c>
       <c r="M23" t="n">
         <v>231.9217242865503</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>27.42622262042676</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K24" t="n">
         <v>98.18955665207055</v>
@@ -36445,10 +36445,10 @@
         <v>162.44176590994</v>
       </c>
       <c r="M24" t="n">
-        <v>335.8151578977946</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N24" t="n">
-        <v>280.8512662402404</v>
+        <v>217.6934752126292</v>
       </c>
       <c r="O24" t="n">
         <v>184.0013030697771</v>
@@ -36521,13 +36521,13 @@
         <v>29.41345178404552</v>
       </c>
       <c r="L25" t="n">
-        <v>310.7347456948595</v>
+        <v>89.07178515192122</v>
       </c>
       <c r="M25" t="n">
-        <v>62.52690209483519</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7640988370555</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O25" t="n">
         <v>302.1537376483</v>
@@ -36536,7 +36536,7 @@
         <v>239.0034378508269</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.09596847326394</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>27.42622262042676</v>
       </c>
       <c r="K27" t="n">
-        <v>98.18955665207055</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="L27" t="n">
-        <v>335.8151578977946</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M27" t="n">
         <v>202.2709337943684</v>
@@ -36688,16 +36688,16 @@
         <v>217.0846649452864</v>
       </c>
       <c r="O27" t="n">
-        <v>184.0013030697771</v>
+        <v>192.2118644965253</v>
       </c>
       <c r="P27" t="n">
-        <v>158.9212736340038</v>
+        <v>134.9838402234785</v>
       </c>
       <c r="Q27" t="n">
         <v>57.45789249536652</v>
       </c>
       <c r="R27" t="n">
-        <v>48.52533727409241</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>38.85484627114976</v>
+        <v>34.52632942174117</v>
       </c>
       <c r="K28" t="n">
         <v>195.9337272817035</v>
       </c>
       <c r="L28" t="n">
-        <v>310.7347456948595</v>
+        <v>57.27421129003463</v>
       </c>
       <c r="M28" t="n">
         <v>335.8151578977946</v>
       </c>
       <c r="N28" t="n">
-        <v>66.19913377293835</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O28" t="n">
-        <v>58.05532514065008</v>
+        <v>47.80873811752328</v>
       </c>
       <c r="P28" t="n">
         <v>239.0034378508269</v>
@@ -36922,7 +36922,7 @@
         <v>202.2709337943684</v>
       </c>
       <c r="N30" t="n">
-        <v>335.8151578977946</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O30" t="n">
         <v>184.0013030697771</v>
@@ -36931,7 +36931,7 @@
         <v>134.9838402234785</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.0382249412387</v>
+        <v>254.7687178937468</v>
       </c>
       <c r="R30" t="n">
         <v>48.52533727409241</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>38.85484627114976</v>
       </c>
       <c r="K31" t="n">
         <v>195.9337272817035</v>
       </c>
       <c r="L31" t="n">
-        <v>57.27421129003463</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M31" t="n">
-        <v>201.0924562620231</v>
+        <v>62.52690209483519</v>
       </c>
       <c r="N31" t="n">
-        <v>334.2347720502987</v>
+        <v>95.38897706824807</v>
       </c>
       <c r="O31" t="n">
         <v>302.1537376483</v>
@@ -37010,7 +37010,7 @@
         <v>239.0034378508269</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>85.09596847326394</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>106.0065550662985</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K33" t="n">
         <v>98.18955665207055</v>
       </c>
       <c r="L33" t="n">
-        <v>162.44176590994</v>
+        <v>163.0505761772823</v>
       </c>
       <c r="M33" t="n">
         <v>202.2709337943684</v>
       </c>
       <c r="N33" t="n">
-        <v>335.8151578977946</v>
+        <v>217.0846649452864</v>
       </c>
       <c r="O33" t="n">
         <v>184.0013030697771</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>38.85484627114976</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404552</v>
       </c>
       <c r="L34" t="n">
         <v>310.7347456948595</v>
       </c>
       <c r="M34" t="n">
-        <v>335.8151578977946</v>
+        <v>324.7624361247602</v>
       </c>
       <c r="N34" t="n">
-        <v>66.19913377293835</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O34" t="n">
-        <v>58.0553251406502</v>
+        <v>302.1537376483</v>
       </c>
       <c r="P34" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092284</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.09596847326394</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>27.42622262042676</v>
       </c>
       <c r="K36" t="n">
-        <v>98.18955665207055</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="L36" t="n">
         <v>162.44176590994</v>
@@ -37396,7 +37396,7 @@
         <v>202.2709337943684</v>
       </c>
       <c r="N36" t="n">
-        <v>217.0846649452864</v>
+        <v>225.2952263720347</v>
       </c>
       <c r="O36" t="n">
         <v>184.0013030697771</v>
@@ -37405,10 +37405,10 @@
         <v>134.9838402234785</v>
       </c>
       <c r="Q36" t="n">
-        <v>254.7687178937473</v>
+        <v>57.45789249536652</v>
       </c>
       <c r="R36" t="n">
-        <v>48.52533727409241</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>38.85484627114976</v>
       </c>
       <c r="K37" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404552</v>
       </c>
       <c r="L37" t="n">
-        <v>57.27421129003463</v>
+        <v>260.8271776506753</v>
       </c>
       <c r="M37" t="n">
-        <v>335.8151578977947</v>
+        <v>335.8151578977946</v>
       </c>
       <c r="N37" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O37" t="n">
-        <v>254.090460038019</v>
+        <v>302.1537376483</v>
       </c>
       <c r="P37" t="n">
         <v>28.39319908092284</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.09596847326394</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>98.18955665207055</v>
       </c>
       <c r="L39" t="n">
-        <v>162.44176590994</v>
+        <v>335.8151578977947</v>
       </c>
       <c r="M39" t="n">
-        <v>335.8151578977946</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N39" t="n">
         <v>217.0846649452864</v>
@@ -37639,10 +37639,10 @@
         <v>184.0013030697771</v>
       </c>
       <c r="P39" t="n">
-        <v>247.275778792525</v>
+        <v>134.9838402234785</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.45789249536652</v>
+        <v>129.9206631799849</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>38.85484627114976</v>
       </c>
       <c r="K40" t="n">
         <v>195.9337272817035</v>
       </c>
       <c r="L40" t="n">
-        <v>57.27421129003463</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M40" t="n">
-        <v>335.8151578977946</v>
+        <v>62.52690209483519</v>
       </c>
       <c r="N40" t="n">
-        <v>334.2347720502987</v>
+        <v>95.38897706824852</v>
       </c>
       <c r="O40" t="n">
-        <v>292.9453063091684</v>
+        <v>302.1537376483</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39319908092284</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q40" t="n">
         <v>85.09596847326394</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>66.79286809914608</v>
+        <v>66.79286809914632</v>
       </c>
       <c r="K41" t="n">
         <v>133.4183635610739</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>27.42622262042676</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K42" t="n">
-        <v>170.6523273366883</v>
+        <v>98.18955665207055</v>
       </c>
       <c r="L42" t="n">
-        <v>335.8151578977946</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M42" t="n">
         <v>202.2709337943684</v>
@@ -37879,7 +37879,7 @@
         <v>134.9838402234785</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.45789249536652</v>
+        <v>106.5920400368011</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>38.85484627114976</v>
       </c>
       <c r="K43" t="n">
-        <v>29.41345178404552</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L43" t="n">
-        <v>299.682023921825</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M43" t="n">
-        <v>335.8151578977946</v>
+        <v>62.52690209483519</v>
       </c>
       <c r="N43" t="n">
-        <v>334.2347720502987</v>
+        <v>180.484945541512</v>
       </c>
       <c r="O43" t="n">
         <v>302.1537376483</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39319908092284</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>217.0846649452864</v>
       </c>
       <c r="O45" t="n">
-        <v>335.8151578977946</v>
+        <v>184.0013030697771</v>
       </c>
       <c r="P45" t="n">
-        <v>229.0061480679334</v>
+        <v>134.9838402234785</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.45789249536652</v>
+        <v>303.2940551678391</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>38.85484627114976</v>
       </c>
       <c r="K46" t="n">
         <v>195.9337272817035</v>
       </c>
       <c r="L46" t="n">
-        <v>302.4107794816798</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M46" t="n">
-        <v>335.8151578977946</v>
+        <v>119.3873143559525</v>
       </c>
       <c r="N46" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O46" t="n">
-        <v>47.80873811752328</v>
+        <v>302.1537376483</v>
       </c>
       <c r="P46" t="n">
         <v>28.39319908092284</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.09596847326394</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
